--- a/GATEWAY/Atlasmedica.com_SRL/atlasmedica.com/atlasmedica.com/7.0/accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/Atlasmedica.com_SRL/atlasmedica.com/atlasmedica.com/7.0/accreditamento-checklist_V8.1.3.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="923">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1833,10 +1833,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">a3c9918d0220fcde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.41503.4.4.8a69bdf728ca7552555dc77d332a14932c81370f501556fc40ca645ea87cd794.3ae9b09879^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-04-15T16:45:30Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4f0567d04d65ed30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.41503.4.4.2699b5e9d61882c23db72beb34bc5d944109494bc7a86a021f5743d5c4e97c3e.1347042bb9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_PSS_CT5_KO</t>
@@ -5488,7 +5491,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.85"/>
@@ -6562,7 +6565,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.14"/>
@@ -7668,14 +7671,14 @@
   <dimension ref="A1:AMJ1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E197" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A197" activeCellId="0" sqref="A197"/>
-      <selection pane="bottomRight" activeCell="I382" activeCellId="0" sqref="I382"/>
+      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="I180" activeCellId="0" sqref="I180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.66"/>
@@ -13804,7 +13807,7 @@
       </c>
       <c r="AMJ179" s="0"/>
     </row>
-    <row r="180" s="42" customFormat="true" ht="80.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" s="42" customFormat="true" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="35" t="n">
         <v>173</v>
       </c>
@@ -13821,16 +13824,16 @@
         <v>398</v>
       </c>
       <c r="F180" s="28" t="n">
-        <v>45392</v>
+        <v>45397</v>
       </c>
       <c r="G180" s="30" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H180" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I180" s="30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J180" s="38" t="s">
         <v>115</v>
@@ -13860,22 +13863,22 @@
         <v>110</v>
       </c>
       <c r="D181" s="26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E181" s="27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F181" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I181" s="30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J181" s="30" t="s">
         <v>115</v>
@@ -13888,7 +13891,7 @@
         <v>115</v>
       </c>
       <c r="N181" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O181" s="30" t="s">
         <v>115</v>
@@ -13914,22 +13917,22 @@
         <v>110</v>
       </c>
       <c r="D182" s="26" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F182" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G182" s="30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H182" s="30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I182" s="30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J182" s="30" t="s">
         <v>115</v>
@@ -13942,7 +13945,7 @@
         <v>115</v>
       </c>
       <c r="N182" s="27" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O182" s="30" t="s">
         <v>115</v>
@@ -13968,22 +13971,22 @@
         <v>110</v>
       </c>
       <c r="D183" s="26" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E183" s="27" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F183" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G183" s="30" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H183" s="30" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I183" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J183" s="30" t="s">
         <v>115</v>
@@ -13996,7 +13999,7 @@
         <v>115</v>
       </c>
       <c r="N183" s="27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O183" s="30" t="s">
         <v>115</v>
@@ -14022,22 +14025,22 @@
         <v>110</v>
       </c>
       <c r="D184" s="26" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E184" s="27" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F184" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G184" s="30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H184" s="30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I184" s="30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J184" s="30" t="s">
         <v>115</v>
@@ -14050,7 +14053,7 @@
         <v>115</v>
       </c>
       <c r="N184" s="27" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O184" s="30" t="s">
         <v>115</v>
@@ -14076,22 +14079,22 @@
         <v>110</v>
       </c>
       <c r="D185" s="26" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E185" s="27" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F185" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H185" s="30" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I185" s="30" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J185" s="30" t="s">
         <v>115</v>
@@ -14104,7 +14107,7 @@
         <v>115</v>
       </c>
       <c r="N185" s="27" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O185" s="30" t="s">
         <v>115</v>
@@ -14130,22 +14133,22 @@
         <v>110</v>
       </c>
       <c r="D186" s="26" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E186" s="27" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F186" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G186" s="30" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H186" s="30" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I186" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J186" s="30" t="s">
         <v>115</v>
@@ -14158,7 +14161,7 @@
         <v>115</v>
       </c>
       <c r="N186" s="27" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O186" s="30" t="s">
         <v>115</v>
@@ -14184,22 +14187,22 @@
         <v>110</v>
       </c>
       <c r="D187" s="26" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F187" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G187" s="30" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H187" s="30" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I187" s="30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J187" s="30" t="s">
         <v>115</v>
@@ -14212,7 +14215,7 @@
         <v>115</v>
       </c>
       <c r="N187" s="27" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O187" s="30" t="s">
         <v>115</v>
@@ -14238,22 +14241,22 @@
         <v>110</v>
       </c>
       <c r="D188" s="26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E188" s="27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F188" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H188" s="30" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I188" s="30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J188" s="30" t="s">
         <v>115</v>
@@ -14266,7 +14269,7 @@
         <v>115</v>
       </c>
       <c r="N188" s="27" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O188" s="30" t="s">
         <v>115</v>
@@ -14292,22 +14295,22 @@
         <v>110</v>
       </c>
       <c r="D189" s="26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F189" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G189" s="30" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H189" s="30" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I189" s="30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J189" s="30" t="s">
         <v>115</v>
@@ -14320,7 +14323,7 @@
         <v>115</v>
       </c>
       <c r="N189" s="27" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O189" s="30" t="s">
         <v>115</v>
@@ -14346,22 +14349,22 @@
         <v>110</v>
       </c>
       <c r="D190" s="26" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E190" s="27" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F190" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G190" s="30" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H190" s="30" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I190" s="30" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J190" s="30" t="s">
         <v>115</v>
@@ -14374,7 +14377,7 @@
         <v>115</v>
       </c>
       <c r="N190" s="27" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O190" s="30" t="s">
         <v>115</v>
@@ -14400,22 +14403,22 @@
         <v>110</v>
       </c>
       <c r="D191" s="26" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E191" s="27" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F191" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G191" s="30" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H191" s="30" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I191" s="30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J191" s="30" t="s">
         <v>115</v>
@@ -14428,7 +14431,7 @@
         <v>115</v>
       </c>
       <c r="N191" s="27" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O191" s="30" t="s">
         <v>115</v>
@@ -14454,22 +14457,22 @@
         <v>110</v>
       </c>
       <c r="D192" s="26" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E192" s="27" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F192" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G192" s="30" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H192" s="30" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I192" s="30" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J192" s="30" t="s">
         <v>115</v>
@@ -14482,7 +14485,7 @@
         <v>115</v>
       </c>
       <c r="N192" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O192" s="30" t="s">
         <v>115</v>
@@ -14508,22 +14511,22 @@
         <v>110</v>
       </c>
       <c r="D193" s="26" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F193" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G193" s="30" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I193" s="30" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="J193" s="30" t="s">
         <v>115</v>
@@ -14536,7 +14539,7 @@
         <v>115</v>
       </c>
       <c r="N193" s="27" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O193" s="30" t="s">
         <v>115</v>
@@ -14562,22 +14565,22 @@
         <v>110</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E194" s="27" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F194" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G194" s="30" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H194" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I194" s="30" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J194" s="30" t="s">
         <v>115</v>
@@ -14590,7 +14593,7 @@
         <v>115</v>
       </c>
       <c r="N194" s="27" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O194" s="30" t="s">
         <v>115</v>
@@ -14616,22 +14619,22 @@
         <v>110</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E195" s="27" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F195" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G195" s="30" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H195" s="30" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I195" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J195" s="30" t="s">
         <v>115</v>
@@ -14644,7 +14647,7 @@
         <v>115</v>
       </c>
       <c r="N195" s="27" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O195" s="30" t="s">
         <v>115</v>
@@ -14670,22 +14673,22 @@
         <v>110</v>
       </c>
       <c r="D196" s="26" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E196" s="27" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F196" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G196" s="30" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H196" s="30" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I196" s="30" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J196" s="30" t="s">
         <v>115</v>
@@ -14698,7 +14701,7 @@
         <v>115</v>
       </c>
       <c r="N196" s="27" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O196" s="30" t="s">
         <v>115</v>
@@ -14724,22 +14727,22 @@
         <v>110</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E197" s="27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F197" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G197" s="30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H197" s="30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I197" s="30" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J197" s="30" t="s">
         <v>115</v>
@@ -14752,7 +14755,7 @@
         <v>115</v>
       </c>
       <c r="N197" s="27" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O197" s="30" t="s">
         <v>115</v>
@@ -14778,10 +14781,10 @@
         <v>49</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E198" s="27" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F198" s="28"/>
       <c r="G198" s="29"/>
@@ -14806,16 +14809,16 @@
         <v>192</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C199" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D199" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E199" s="27" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F199" s="28"/>
       <c r="G199" s="29"/>
@@ -14840,16 +14843,16 @@
         <v>193</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C200" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E200" s="27" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F200" s="28"/>
       <c r="G200" s="29"/>
@@ -14874,16 +14877,16 @@
         <v>194</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C201" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D201" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E201" s="27" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F201" s="28"/>
       <c r="G201" s="29"/>
@@ -14908,16 +14911,16 @@
         <v>195</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C202" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E202" s="27" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F202" s="28"/>
       <c r="G202" s="29"/>
@@ -14942,16 +14945,16 @@
         <v>196</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C203" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E203" s="27" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F203" s="28"/>
       <c r="G203" s="29"/>
@@ -14976,16 +14979,16 @@
         <v>197</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C204" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E204" s="27" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F204" s="28"/>
       <c r="G204" s="29"/>
@@ -15010,16 +15013,16 @@
         <v>198</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C205" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E205" s="27" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F205" s="28"/>
       <c r="G205" s="29"/>
@@ -15044,16 +15047,16 @@
         <v>199</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C206" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E206" s="27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F206" s="28"/>
       <c r="G206" s="29"/>
@@ -15078,16 +15081,16 @@
         <v>200</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C207" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E207" s="27" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F207" s="28"/>
       <c r="G207" s="29"/>
@@ -15112,16 +15115,16 @@
         <v>201</v>
       </c>
       <c r="B208" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C208" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F208" s="28"/>
       <c r="G208" s="29"/>
@@ -15146,16 +15149,16 @@
         <v>202</v>
       </c>
       <c r="B209" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C209" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D209" s="26" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F209" s="28"/>
       <c r="G209" s="29"/>
@@ -15180,16 +15183,16 @@
         <v>203</v>
       </c>
       <c r="B210" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C210" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E210" s="27" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F210" s="28"/>
       <c r="G210" s="29"/>
@@ -15214,16 +15217,16 @@
         <v>204</v>
       </c>
       <c r="B211" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C211" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E211" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F211" s="28"/>
       <c r="G211" s="29"/>
@@ -15248,16 +15251,16 @@
         <v>205</v>
       </c>
       <c r="B212" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C212" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E212" s="27" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F212" s="28"/>
       <c r="G212" s="29"/>
@@ -15282,16 +15285,16 @@
         <v>206</v>
       </c>
       <c r="B213" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C213" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D213" s="26" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E213" s="27" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F213" s="28"/>
       <c r="G213" s="29"/>
@@ -15316,16 +15319,16 @@
         <v>207</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C214" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D214" s="26" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E214" s="27" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F214" s="28"/>
       <c r="G214" s="29"/>
@@ -15350,16 +15353,16 @@
         <v>208</v>
       </c>
       <c r="B215" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C215" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E215" s="27" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F215" s="28"/>
       <c r="G215" s="29"/>
@@ -15384,16 +15387,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C216" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E216" s="27" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F216" s="28"/>
       <c r="G216" s="29"/>
@@ -15418,16 +15421,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C217" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D217" s="26" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E217" s="27" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F217" s="28"/>
       <c r="G217" s="29"/>
@@ -15452,16 +15455,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C218" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D218" s="26" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E218" s="27" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F218" s="28"/>
       <c r="G218" s="29"/>
@@ -15486,16 +15489,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C219" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D219" s="26" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E219" s="27" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F219" s="28"/>
       <c r="G219" s="29"/>
@@ -15520,16 +15523,16 @@
         <v>213</v>
       </c>
       <c r="B220" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C220" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E220" s="27" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F220" s="28"/>
       <c r="G220" s="29"/>
@@ -15554,16 +15557,16 @@
         <v>214</v>
       </c>
       <c r="B221" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C221" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D221" s="26" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E221" s="27" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F221" s="28"/>
       <c r="G221" s="29"/>
@@ -15588,16 +15591,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C222" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E222" s="27" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F222" s="28"/>
       <c r="G222" s="29"/>
@@ -15622,16 +15625,16 @@
         <v>216</v>
       </c>
       <c r="B223" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C223" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E223" s="27" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F223" s="28"/>
       <c r="G223" s="29"/>
@@ -15656,16 +15659,16 @@
         <v>217</v>
       </c>
       <c r="B224" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C224" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E224" s="27" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F224" s="28"/>
       <c r="G224" s="29"/>
@@ -15690,16 +15693,16 @@
         <v>218</v>
       </c>
       <c r="B225" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C225" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E225" s="27" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F225" s="28"/>
       <c r="G225" s="29"/>
@@ -15724,16 +15727,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C226" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E226" s="27" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F226" s="28"/>
       <c r="G226" s="29"/>
@@ -15758,16 +15761,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C227" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E227" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F227" s="28"/>
       <c r="G227" s="29"/>
@@ -15792,16 +15795,16 @@
         <v>221</v>
       </c>
       <c r="B228" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C228" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E228" s="27" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F228" s="28"/>
       <c r="G228" s="29"/>
@@ -15826,16 +15829,16 @@
         <v>222</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C229" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E229" s="27" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F229" s="28"/>
       <c r="G229" s="29"/>
@@ -15860,16 +15863,16 @@
         <v>223</v>
       </c>
       <c r="B230" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C230" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E230" s="27" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F230" s="28"/>
       <c r="G230" s="29"/>
@@ -15894,16 +15897,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C231" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E231" s="27" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F231" s="28"/>
       <c r="G231" s="29"/>
@@ -15928,16 +15931,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C232" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E232" s="27" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F232" s="28"/>
       <c r="G232" s="29"/>
@@ -15962,16 +15965,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C233" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E233" s="27" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F233" s="28"/>
       <c r="G233" s="29"/>
@@ -15996,16 +15999,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C234" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E234" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F234" s="28"/>
       <c r="G234" s="29"/>
@@ -16030,16 +16033,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C235" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E235" s="27" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F235" s="28"/>
       <c r="G235" s="29"/>
@@ -16064,16 +16067,16 @@
         <v>229</v>
       </c>
       <c r="B236" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C236" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E236" s="27" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F236" s="28"/>
       <c r="G236" s="29"/>
@@ -16098,16 +16101,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C237" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E237" s="27" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F237" s="28"/>
       <c r="G237" s="29"/>
@@ -16132,16 +16135,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C238" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E238" s="27" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F238" s="28"/>
       <c r="G238" s="29"/>
@@ -16166,16 +16169,16 @@
         <v>232</v>
       </c>
       <c r="B239" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C239" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E239" s="27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F239" s="28"/>
       <c r="G239" s="29"/>
@@ -16200,16 +16203,16 @@
         <v>233</v>
       </c>
       <c r="B240" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C240" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D240" s="26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E240" s="27" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F240" s="28"/>
       <c r="G240" s="29"/>
@@ -16234,16 +16237,16 @@
         <v>234</v>
       </c>
       <c r="B241" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C241" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E241" s="27" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F241" s="28"/>
       <c r="G241" s="29"/>
@@ -16268,16 +16271,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C242" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D242" s="26" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E242" s="27" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F242" s="28"/>
       <c r="G242" s="29"/>
@@ -16302,16 +16305,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C243" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E243" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F243" s="28"/>
       <c r="G243" s="29"/>
@@ -16336,16 +16339,16 @@
         <v>237</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C244" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D244" s="26" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E244" s="27" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F244" s="28"/>
       <c r="G244" s="29"/>
@@ -16370,16 +16373,16 @@
         <v>238</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C245" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D245" s="26" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E245" s="27" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F245" s="28"/>
       <c r="G245" s="29"/>
@@ -16404,16 +16407,16 @@
         <v>239</v>
       </c>
       <c r="B246" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C246" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D246" s="26" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E246" s="27" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F246" s="28"/>
       <c r="G246" s="29"/>
@@ -16438,16 +16441,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C247" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E247" s="27" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F247" s="28"/>
       <c r="G247" s="29"/>
@@ -16472,16 +16475,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C248" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D248" s="26" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E248" s="27" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F248" s="28"/>
       <c r="G248" s="29"/>
@@ -16506,16 +16509,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C249" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E249" s="27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F249" s="28"/>
       <c r="G249" s="29"/>
@@ -16540,16 +16543,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C250" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E250" s="27" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F250" s="28"/>
       <c r="G250" s="29"/>
@@ -16574,16 +16577,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C251" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D251" s="26" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E251" s="27" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F251" s="28"/>
       <c r="G251" s="29"/>
@@ -16608,16 +16611,16 @@
         <v>245</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C252" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D252" s="26" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E252" s="27" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F252" s="28"/>
       <c r="G252" s="29"/>
@@ -16642,16 +16645,16 @@
         <v>246</v>
       </c>
       <c r="B253" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C253" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D253" s="26" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E253" s="27" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F253" s="28"/>
       <c r="G253" s="29"/>
@@ -16676,16 +16679,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C254" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D254" s="26" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E254" s="27" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F254" s="28"/>
       <c r="G254" s="29"/>
@@ -16710,16 +16713,16 @@
         <v>248</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C255" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E255" s="27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F255" s="28"/>
       <c r="G255" s="29"/>
@@ -16744,16 +16747,16 @@
         <v>249</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C256" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D256" s="26" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E256" s="27" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F256" s="28"/>
       <c r="G256" s="29"/>
@@ -16778,16 +16781,16 @@
         <v>250</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C257" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E257" s="27" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F257" s="28"/>
       <c r="G257" s="29"/>
@@ -16812,16 +16815,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C258" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D258" s="26" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E258" s="27" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F258" s="28"/>
       <c r="G258" s="29"/>
@@ -16846,16 +16849,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C259" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D259" s="26" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E259" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F259" s="28"/>
       <c r="G259" s="29"/>
@@ -16880,16 +16883,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C260" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D260" s="26" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E260" s="27" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F260" s="28"/>
       <c r="G260" s="29"/>
@@ -16914,16 +16917,16 @@
         <v>254</v>
       </c>
       <c r="B261" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C261" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D261" s="26" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E261" s="27" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F261" s="28"/>
       <c r="G261" s="29"/>
@@ -16948,16 +16951,16 @@
         <v>255</v>
       </c>
       <c r="B262" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C262" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D262" s="26" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E262" s="27" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F262" s="28"/>
       <c r="G262" s="29"/>
@@ -16982,16 +16985,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C263" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D263" s="26" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E263" s="27" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F263" s="28"/>
       <c r="G263" s="29"/>
@@ -17016,16 +17019,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C264" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D264" s="26" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E264" s="27" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F264" s="28"/>
       <c r="G264" s="29"/>
@@ -17050,16 +17053,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C265" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D265" s="26" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E265" s="27" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F265" s="28"/>
       <c r="G265" s="29"/>
@@ -17084,16 +17087,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C266" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E266" s="27" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F266" s="28"/>
       <c r="G266" s="29"/>
@@ -17118,16 +17121,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C267" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D267" s="26" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E267" s="27" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F267" s="28"/>
       <c r="G267" s="29"/>
@@ -17152,16 +17155,16 @@
         <v>261</v>
       </c>
       <c r="B268" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C268" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E268" s="27" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F268" s="28"/>
       <c r="G268" s="29"/>
@@ -17186,16 +17189,16 @@
         <v>262</v>
       </c>
       <c r="B269" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C269" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E269" s="27" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F269" s="28"/>
       <c r="G269" s="29"/>
@@ -17220,16 +17223,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C270" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D270" s="26" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E270" s="27" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F270" s="28"/>
       <c r="G270" s="29"/>
@@ -17254,16 +17257,16 @@
         <v>264</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C271" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D271" s="26" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E271" s="27" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F271" s="28"/>
       <c r="G271" s="29"/>
@@ -17288,16 +17291,16 @@
         <v>265</v>
       </c>
       <c r="B272" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C272" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D272" s="26" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E272" s="27" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F272" s="28"/>
       <c r="G272" s="29"/>
@@ -17322,16 +17325,16 @@
         <v>266</v>
       </c>
       <c r="B273" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C273" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D273" s="26" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E273" s="27" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F273" s="28"/>
       <c r="G273" s="29"/>
@@ -17356,16 +17359,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C274" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D274" s="26" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E274" s="27" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F274" s="28"/>
       <c r="G274" s="29"/>
@@ -17390,16 +17393,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C275" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D275" s="26" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E275" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F275" s="28"/>
       <c r="G275" s="29"/>
@@ -17424,16 +17427,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C276" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D276" s="26" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E276" s="27" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F276" s="28"/>
       <c r="G276" s="29"/>
@@ -17458,16 +17461,16 @@
         <v>270</v>
       </c>
       <c r="B277" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C277" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D277" s="26" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E277" s="27" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F277" s="28"/>
       <c r="G277" s="29"/>
@@ -17492,16 +17495,16 @@
         <v>271</v>
       </c>
       <c r="B278" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C278" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D278" s="26" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E278" s="27" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F278" s="28"/>
       <c r="G278" s="29"/>
@@ -17526,16 +17529,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C279" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D279" s="26" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E279" s="27" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F279" s="28"/>
       <c r="G279" s="29"/>
@@ -17560,16 +17563,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C280" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D280" s="26" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E280" s="27" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F280" s="28"/>
       <c r="G280" s="29"/>
@@ -17594,16 +17597,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C281" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D281" s="26" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E281" s="27" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F281" s="28"/>
       <c r="G281" s="29"/>
@@ -17628,16 +17631,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C282" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D282" s="26" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E282" s="27" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F282" s="28"/>
       <c r="G282" s="29"/>
@@ -17662,16 +17665,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C283" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D283" s="26" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E283" s="27" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F283" s="28"/>
       <c r="G283" s="29"/>
@@ -17696,16 +17699,16 @@
         <v>277</v>
       </c>
       <c r="B284" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C284" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D284" s="26" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E284" s="27" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F284" s="28"/>
       <c r="G284" s="29"/>
@@ -17730,16 +17733,16 @@
         <v>278</v>
       </c>
       <c r="B285" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C285" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D285" s="26" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E285" s="27" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F285" s="28"/>
       <c r="G285" s="29"/>
@@ -17764,16 +17767,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C286" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D286" s="26" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E286" s="27" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F286" s="28"/>
       <c r="G286" s="29"/>
@@ -17798,16 +17801,16 @@
         <v>280</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C287" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D287" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E287" s="27" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F287" s="28"/>
       <c r="G287" s="29"/>
@@ -17832,16 +17835,16 @@
         <v>281</v>
       </c>
       <c r="B288" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C288" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D288" s="26" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E288" s="27" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F288" s="28"/>
       <c r="G288" s="29"/>
@@ -17866,16 +17869,16 @@
         <v>282</v>
       </c>
       <c r="B289" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C289" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D289" s="26" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E289" s="27" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F289" s="28"/>
       <c r="G289" s="29"/>
@@ -17900,16 +17903,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C290" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D290" s="26" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E290" s="27" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F290" s="28"/>
       <c r="G290" s="29"/>
@@ -17934,16 +17937,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C291" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D291" s="26" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E291" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F291" s="28"/>
       <c r="G291" s="29"/>
@@ -17968,16 +17971,16 @@
         <v>285</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C292" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D292" s="26" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E292" s="27" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F292" s="28"/>
       <c r="G292" s="29"/>
@@ -18002,16 +18005,16 @@
         <v>286</v>
       </c>
       <c r="B293" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C293" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D293" s="26" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E293" s="27" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F293" s="28"/>
       <c r="G293" s="29"/>
@@ -18036,16 +18039,16 @@
         <v>287</v>
       </c>
       <c r="B294" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C294" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D294" s="26" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E294" s="27" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F294" s="28"/>
       <c r="G294" s="29"/>
@@ -18070,16 +18073,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C295" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D295" s="26" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E295" s="27" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F295" s="28"/>
       <c r="G295" s="29"/>
@@ -18104,16 +18107,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C296" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D296" s="26" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E296" s="27" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F296" s="28"/>
       <c r="G296" s="29"/>
@@ -18138,16 +18141,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C297" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D297" s="26" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E297" s="27" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F297" s="28"/>
       <c r="G297" s="29"/>
@@ -18172,16 +18175,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C298" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D298" s="26" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E298" s="27" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F298" s="28"/>
       <c r="G298" s="29"/>
@@ -18206,16 +18209,16 @@
         <v>292</v>
       </c>
       <c r="B299" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C299" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D299" s="26" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E299" s="27" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F299" s="28"/>
       <c r="G299" s="29"/>
@@ -18240,16 +18243,16 @@
         <v>293</v>
       </c>
       <c r="B300" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C300" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D300" s="26" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E300" s="27" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F300" s="28"/>
       <c r="G300" s="29"/>
@@ -18274,16 +18277,16 @@
         <v>294</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C301" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D301" s="26" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="E301" s="27" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="F301" s="28"/>
       <c r="G301" s="29"/>
@@ -18308,16 +18311,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C302" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D302" s="26" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E302" s="27" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F302" s="28"/>
       <c r="G302" s="29"/>
@@ -18342,16 +18345,16 @@
         <v>296</v>
       </c>
       <c r="B303" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C303" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D303" s="26" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E303" s="27" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F303" s="28"/>
       <c r="G303" s="29"/>
@@ -18376,16 +18379,16 @@
         <v>297</v>
       </c>
       <c r="B304" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C304" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D304" s="26" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E304" s="27" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F304" s="28"/>
       <c r="G304" s="29"/>
@@ -18410,16 +18413,16 @@
         <v>298</v>
       </c>
       <c r="B305" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C305" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D305" s="26" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E305" s="27" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F305" s="28"/>
       <c r="G305" s="29"/>
@@ -18444,16 +18447,16 @@
         <v>299</v>
       </c>
       <c r="B306" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C306" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D306" s="26" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E306" s="27" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F306" s="28"/>
       <c r="G306" s="29"/>
@@ -18478,16 +18481,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C307" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D307" s="26" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E307" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F307" s="28"/>
       <c r="G307" s="29"/>
@@ -18512,16 +18515,16 @@
         <v>301</v>
       </c>
       <c r="B308" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C308" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D308" s="26" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E308" s="27" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F308" s="28"/>
       <c r="G308" s="29"/>
@@ -18546,16 +18549,16 @@
         <v>302</v>
       </c>
       <c r="B309" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C309" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D309" s="26" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E309" s="27" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F309" s="28"/>
       <c r="G309" s="29"/>
@@ -18580,16 +18583,16 @@
         <v>303</v>
       </c>
       <c r="B310" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C310" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D310" s="26" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E310" s="27" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F310" s="28"/>
       <c r="G310" s="29"/>
@@ -18614,16 +18617,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C311" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D311" s="26" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E311" s="27" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F311" s="28"/>
       <c r="G311" s="29"/>
@@ -18648,16 +18651,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C312" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D312" s="26" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E312" s="27" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F312" s="28"/>
       <c r="G312" s="29"/>
@@ -18682,16 +18685,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C313" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D313" s="26" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E313" s="27" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F313" s="28"/>
       <c r="G313" s="29"/>
@@ -18716,16 +18719,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C314" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D314" s="26" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E314" s="27" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="F314" s="28"/>
       <c r="G314" s="29"/>
@@ -18750,16 +18753,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C315" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D315" s="26" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E315" s="27" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F315" s="28"/>
       <c r="G315" s="29"/>
@@ -18784,16 +18787,16 @@
         <v>309</v>
       </c>
       <c r="B316" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C316" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D316" s="26" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E316" s="27" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F316" s="28"/>
       <c r="G316" s="29"/>
@@ -18818,16 +18821,16 @@
         <v>310</v>
       </c>
       <c r="B317" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C317" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D317" s="26" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E317" s="27" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F317" s="28"/>
       <c r="G317" s="29"/>
@@ -18852,16 +18855,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C318" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D318" s="26" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E318" s="27" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F318" s="28"/>
       <c r="G318" s="29"/>
@@ -18886,16 +18889,16 @@
         <v>312</v>
       </c>
       <c r="B319" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C319" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E319" s="27" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="F319" s="28"/>
       <c r="G319" s="29"/>
@@ -18920,16 +18923,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C320" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D320" s="26" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E320" s="27" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F320" s="28"/>
       <c r="G320" s="29"/>
@@ -18954,16 +18957,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C321" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E321" s="27" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F321" s="28"/>
       <c r="G321" s="29"/>
@@ -18988,16 +18991,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C322" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D322" s="26" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E322" s="27" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F322" s="28"/>
       <c r="G322" s="29"/>
@@ -19022,16 +19025,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="26" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C323" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D323" s="26" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E323" s="27" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F323" s="28"/>
       <c r="G323" s="29"/>
@@ -19056,16 +19059,16 @@
         <v>317</v>
       </c>
       <c r="B324" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C324" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D324" s="26" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E324" s="27" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F324" s="28"/>
       <c r="G324" s="29"/>
@@ -19090,16 +19093,16 @@
         <v>318</v>
       </c>
       <c r="B325" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C325" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D325" s="26" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E325" s="27" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F325" s="28"/>
       <c r="G325" s="29"/>
@@ -19124,16 +19127,16 @@
         <v>319</v>
       </c>
       <c r="B326" s="26" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C326" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D326" s="26" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E326" s="27" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F326" s="28"/>
       <c r="G326" s="29"/>
@@ -19158,16 +19161,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C327" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D327" s="26" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E327" s="27" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F327" s="28"/>
       <c r="G327" s="29"/>
@@ -19192,16 +19195,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C328" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E328" s="27" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F328" s="28"/>
       <c r="G328" s="29"/>
@@ -19226,16 +19229,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C329" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E329" s="27" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F329" s="28"/>
       <c r="G329" s="29"/>
@@ -19260,16 +19263,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C330" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E330" s="27" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F330" s="28"/>
       <c r="G330" s="29"/>
@@ -19294,16 +19297,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C331" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E331" s="27" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F331" s="28"/>
       <c r="G331" s="29"/>
@@ -19328,16 +19331,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C332" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D332" s="26" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E332" s="27" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F332" s="28"/>
       <c r="G332" s="29"/>
@@ -19362,16 +19365,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C333" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E333" s="27" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F333" s="28"/>
       <c r="G333" s="29"/>
@@ -19396,16 +19399,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C334" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D334" s="26" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E334" s="27" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F334" s="28"/>
       <c r="G334" s="29"/>
@@ -19430,16 +19433,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C335" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D335" s="26" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E335" s="27" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F335" s="28"/>
       <c r="G335" s="29"/>
@@ -19464,16 +19467,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C336" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D336" s="26" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E336" s="27" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F336" s="28"/>
       <c r="G336" s="29"/>
@@ -19498,16 +19501,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C337" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D337" s="26" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E337" s="27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F337" s="28"/>
       <c r="G337" s="29"/>
@@ -19532,16 +19535,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C338" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D338" s="26" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E338" s="27" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F338" s="28"/>
       <c r="G338" s="29"/>
@@ -19566,16 +19569,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C339" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D339" s="26" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E339" s="27" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F339" s="28"/>
       <c r="G339" s="29"/>
@@ -19600,16 +19603,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C340" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D340" s="26" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E340" s="27" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F340" s="28"/>
       <c r="G340" s="29"/>
@@ -19634,16 +19637,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C341" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D341" s="26" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E341" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F341" s="28"/>
       <c r="G341" s="29"/>
@@ -19668,16 +19671,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C342" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D342" s="26" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E342" s="27" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F342" s="28"/>
       <c r="G342" s="29"/>
@@ -19702,16 +19705,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C343" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D343" s="26" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E343" s="27" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F343" s="28"/>
       <c r="G343" s="29"/>
@@ -19736,16 +19739,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C344" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D344" s="26" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E344" s="27" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F344" s="28"/>
       <c r="G344" s="29"/>
@@ -19770,16 +19773,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C345" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D345" s="26" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E345" s="27" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F345" s="28"/>
       <c r="G345" s="29"/>
@@ -19804,16 +19807,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C346" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D346" s="26" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E346" s="27" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F346" s="28"/>
       <c r="G346" s="29"/>
@@ -19838,16 +19841,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C347" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D347" s="26" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="E347" s="27" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F347" s="28"/>
       <c r="G347" s="29"/>
@@ -19872,16 +19875,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C348" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D348" s="26" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E348" s="27" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F348" s="28"/>
       <c r="G348" s="29"/>
@@ -19906,16 +19909,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C349" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D349" s="26" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="E349" s="27" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F349" s="28"/>
       <c r="G349" s="29"/>
@@ -19940,16 +19943,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C350" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D350" s="26" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="E350" s="27" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F350" s="28"/>
       <c r="G350" s="29"/>
@@ -19974,16 +19977,16 @@
         <v>344</v>
       </c>
       <c r="B351" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C351" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D351" s="26" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E351" s="27" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F351" s="28"/>
       <c r="G351" s="29"/>
@@ -20008,16 +20011,16 @@
         <v>345</v>
       </c>
       <c r="B352" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C352" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D352" s="26" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E352" s="27" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F352" s="28"/>
       <c r="G352" s="29"/>
@@ -20042,16 +20045,16 @@
         <v>346</v>
       </c>
       <c r="B353" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C353" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D353" s="26" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="E353" s="27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F353" s="28"/>
       <c r="G353" s="29"/>
@@ -20076,16 +20079,16 @@
         <v>347</v>
       </c>
       <c r="B354" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C354" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D354" s="26" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E354" s="27" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F354" s="28"/>
       <c r="G354" s="29"/>
@@ -20110,16 +20113,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C355" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D355" s="26" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E355" s="27" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F355" s="28"/>
       <c r="G355" s="29"/>
@@ -20144,16 +20147,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C356" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D356" s="26" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E356" s="27" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F356" s="28"/>
       <c r="G356" s="29"/>
@@ -20178,16 +20181,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C357" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D357" s="26" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="E357" s="27" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F357" s="28"/>
       <c r="G357" s="29"/>
@@ -20212,16 +20215,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C358" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D358" s="26" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E358" s="27" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F358" s="28"/>
       <c r="G358" s="29"/>
@@ -20246,16 +20249,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C359" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D359" s="26" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E359" s="27" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F359" s="28"/>
       <c r="G359" s="29"/>
@@ -20280,16 +20283,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C360" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D360" s="26" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E360" s="27" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F360" s="28"/>
       <c r="G360" s="29"/>
@@ -20314,16 +20317,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C361" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D361" s="26" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="E361" s="27" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F361" s="28"/>
       <c r="G361" s="29"/>
@@ -20348,16 +20351,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C362" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D362" s="26" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E362" s="27" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F362" s="28"/>
       <c r="G362" s="29"/>
@@ -20382,16 +20385,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C363" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D363" s="26" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E363" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F363" s="28"/>
       <c r="G363" s="29"/>
@@ -20416,16 +20419,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C364" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D364" s="26" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E364" s="27" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F364" s="28"/>
       <c r="G364" s="29"/>
@@ -20450,16 +20453,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C365" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D365" s="26" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E365" s="27" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F365" s="28"/>
       <c r="G365" s="29"/>
@@ -20484,16 +20487,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C366" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D366" s="26" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E366" s="27" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F366" s="28"/>
       <c r="G366" s="29"/>
@@ -20518,16 +20521,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C367" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D367" s="26" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E367" s="27" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F367" s="28"/>
       <c r="G367" s="29"/>
@@ -20552,16 +20555,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C368" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D368" s="26" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E368" s="27" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F368" s="28"/>
       <c r="G368" s="29"/>
@@ -20586,16 +20589,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C369" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D369" s="26" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E369" s="27" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F369" s="28"/>
       <c r="G369" s="29"/>
@@ -20620,16 +20623,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C370" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D370" s="26" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="E370" s="27" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="F370" s="28"/>
       <c r="G370" s="29"/>
@@ -20654,16 +20657,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C371" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D371" s="26" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E371" s="27" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F371" s="28"/>
       <c r="G371" s="29"/>
@@ -20688,16 +20691,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C372" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D372" s="26" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E372" s="27" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F372" s="28"/>
       <c r="G372" s="29"/>
@@ -20722,16 +20725,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C373" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D373" s="26" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="E373" s="27" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F373" s="28"/>
       <c r="G373" s="29"/>
@@ -20756,16 +20759,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C374" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D374" s="26" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E374" s="27" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F374" s="28"/>
       <c r="G374" s="29"/>
@@ -20796,10 +20799,10 @@
         <v>49</v>
       </c>
       <c r="D375" s="26" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E375" s="27" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F375" s="28"/>
       <c r="G375" s="29"/>
@@ -20830,10 +20833,10 @@
         <v>61</v>
       </c>
       <c r="D376" s="26" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E376" s="27" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F376" s="28"/>
       <c r="G376" s="29"/>
@@ -20864,10 +20867,10 @@
         <v>70</v>
       </c>
       <c r="D377" s="26" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E377" s="27" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F377" s="28"/>
       <c r="G377" s="29"/>
@@ -20898,10 +20901,10 @@
         <v>79</v>
       </c>
       <c r="D378" s="26" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E378" s="27" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F378" s="28"/>
       <c r="G378" s="29"/>
@@ -20932,10 +20935,10 @@
         <v>88</v>
       </c>
       <c r="D379" s="26" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E379" s="27" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F379" s="28"/>
       <c r="G379" s="29"/>
@@ -20966,10 +20969,10 @@
         <v>97</v>
       </c>
       <c r="D380" s="26" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E380" s="27" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F380" s="28"/>
       <c r="G380" s="29"/>
@@ -21000,10 +21003,10 @@
         <v>120</v>
       </c>
       <c r="D381" s="26" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E381" s="27" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F381" s="28"/>
       <c r="G381" s="29"/>
@@ -21034,22 +21037,22 @@
         <v>110</v>
       </c>
       <c r="D382" s="36" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E382" s="37" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F382" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G382" s="30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H382" s="30" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="I382" s="30" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="J382" s="38" t="s">
         <v>115</v>
@@ -21079,10 +21082,10 @@
         <v>49</v>
       </c>
       <c r="D383" s="26" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E383" s="27" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F383" s="28"/>
       <c r="G383" s="29"/>
@@ -25813,7 +25816,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.86"/>
@@ -25830,10 +25833,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25841,13 +25844,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25855,13 +25858,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25869,13 +25872,13 @@
         <v>70</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25883,13 +25886,13 @@
         <v>79</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25897,13 +25900,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25911,13 +25914,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25925,13 +25928,13 @@
         <v>120</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25939,27 +25942,27 @@
         <v>110</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25967,13 +25970,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C11" s="43" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25981,13 +25984,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C12" s="43" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25995,13 +25998,13 @@
         <v>70</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C13" s="43" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26009,13 +26012,13 @@
         <v>79</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C14" s="43" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26023,13 +26026,13 @@
         <v>88</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C15" s="43" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26037,13 +26040,13 @@
         <v>97</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C16" s="43" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26051,13 +26054,13 @@
         <v>120</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C17" s="43" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26065,13 +26068,13 @@
         <v>110</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C18" s="43" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26079,13 +26082,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C19" s="43" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26093,13 +26096,13 @@
         <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C20" s="43" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26107,13 +26110,13 @@
         <v>70</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C21" s="43" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26121,13 +26124,13 @@
         <v>79</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C22" s="43" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26135,13 +26138,13 @@
         <v>88</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C23" s="43" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26149,13 +26152,13 @@
         <v>97</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C24" s="43" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26163,13 +26166,13 @@
         <v>120</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C25" s="43" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26177,13 +26180,13 @@
         <v>110</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C26" s="43" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26191,13 +26194,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C27" s="43" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26205,13 +26208,13 @@
         <v>61</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C28" s="43" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26219,13 +26222,13 @@
         <v>70</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C29" s="43" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26233,13 +26236,13 @@
         <v>79</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C30" s="43" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26247,13 +26250,13 @@
         <v>88</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C31" s="43" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26261,13 +26264,13 @@
         <v>97</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C32" s="43" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26275,13 +26278,13 @@
         <v>120</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C33" s="43" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26289,13 +26292,13 @@
         <v>110</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C34" s="43" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26303,7 +26306,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C35" s="43" t="n">
         <v>195</v>
@@ -26317,7 +26320,7 @@
         <v>61</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C36" s="43" t="n">
         <v>211</v>
@@ -26331,7 +26334,7 @@
         <v>70</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C37" s="43" t="n">
         <v>227</v>
@@ -26345,7 +26348,7 @@
         <v>79</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C38" s="43" t="n">
         <v>243</v>
@@ -26359,7 +26362,7 @@
         <v>88</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C39" s="43" t="n">
         <v>259</v>
@@ -26373,7 +26376,7 @@
         <v>97</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C40" s="43" t="n">
         <v>275</v>
@@ -26387,7 +26390,7 @@
         <v>120</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C41" s="43" t="n">
         <v>291</v>
@@ -26401,7 +26404,7 @@
         <v>110</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C42" s="43" t="n">
         <v>307</v>
@@ -26415,7 +26418,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C43" s="43" t="n">
         <v>196</v>
@@ -26429,7 +26432,7 @@
         <v>61</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C44" s="43" t="n">
         <v>212</v>
@@ -26443,7 +26446,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C45" s="43" t="n">
         <v>228</v>
@@ -26457,7 +26460,7 @@
         <v>79</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C46" s="43" t="n">
         <v>244</v>
@@ -26471,7 +26474,7 @@
         <v>88</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C47" s="43" t="n">
         <v>260</v>
@@ -26485,7 +26488,7 @@
         <v>97</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C48" s="43" t="n">
         <v>276</v>
@@ -26499,7 +26502,7 @@
         <v>120</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C49" s="43" t="n">
         <v>292</v>
@@ -26513,7 +26516,7 @@
         <v>110</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C50" s="43" t="n">
         <v>308</v>
@@ -27502,7 +27505,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.14"/>
@@ -27519,7 +27522,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>115</v>
@@ -27527,7 +27530,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="46" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>116</v>

--- a/GATEWAY/Atlasmedica.com_SRL/atlasmedica.com/atlasmedica.com/7.0/accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/Atlasmedica.com_SRL/atlasmedica.com/atlasmedica.com/7.0/accreditamento-checklist_V8.1.3.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="924">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -716,6 +716,13 @@
   </si>
   <si>
     <t xml:space="preserve">Attenzione: timeout.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- il software presenta il messaggio di errore
+- il medico può decidere (operazione di retry) di inviare manualmente nuovamente il PSS
+- oppure di utilizzare le opportune funzionalità per modificare i dati del paziente per corregge l’errore
+- oppure di contattare l'assistenza per segnalare il problema e attivare la procedura di supporto/risoluzione
+- se contattato, l’operatore in back office supporta il medico nell'eseguire manualmente l'operazione di retry</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
@@ -7671,11 +7678,11 @@
   <dimension ref="A1:AMJ1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="K53" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
-      <selection pane="bottomRight" activeCell="I180" activeCellId="0" sqref="I180"/>
+      <selection pane="bottomRight" activeCell="P53" activeCellId="0" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9434,7 +9441,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="175" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="256.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="25" t="n">
         <v>46</v>
       </c>
@@ -9471,7 +9478,7 @@
         <v>115</v>
       </c>
       <c r="P53" s="27" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="Q53" s="30"/>
       <c r="R53" s="31"/>
@@ -9491,7 +9498,7 @@
         <v>70</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E54" s="27" t="s">
         <v>138</v>
@@ -9527,7 +9534,7 @@
         <v>120</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E55" s="27" t="s">
         <v>138</v>
@@ -9563,7 +9570,7 @@
         <v>79</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E56" s="27" t="s">
         <v>138</v>
@@ -9599,7 +9606,7 @@
         <v>88</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E57" s="27" t="s">
         <v>138</v>
@@ -9635,7 +9642,7 @@
         <v>97</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>138</v>
@@ -9671,10 +9678,10 @@
         <v>49</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="29"/>
@@ -9705,10 +9712,10 @@
         <v>49</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="29"/>
@@ -9739,10 +9746,10 @@
         <v>49</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="29"/>
@@ -9773,10 +9780,10 @@
         <v>49</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="29"/>
@@ -9807,10 +9814,10 @@
         <v>49</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="29"/>
@@ -9841,10 +9848,10 @@
         <v>49</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="29"/>
@@ -9875,10 +9882,10 @@
         <v>49</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="29"/>
@@ -9909,10 +9916,10 @@
         <v>49</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="29"/>
@@ -9943,10 +9950,10 @@
         <v>49</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="29"/>
@@ -9977,10 +9984,10 @@
         <v>49</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="29"/>
@@ -10011,10 +10018,10 @@
         <v>49</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="29"/>
@@ -10045,10 +10052,10 @@
         <v>61</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" s="29"/>
@@ -10079,10 +10086,10 @@
         <v>61</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="29"/>
@@ -10113,10 +10120,10 @@
         <v>61</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="29"/>
@@ -10147,10 +10154,10 @@
         <v>61</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="29"/>
@@ -10181,10 +10188,10 @@
         <v>61</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F74" s="28"/>
       <c r="G74" s="29"/>
@@ -10215,10 +10222,10 @@
         <v>61</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="29"/>
@@ -10249,10 +10256,10 @@
         <v>61</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="29"/>
@@ -10283,10 +10290,10 @@
         <v>61</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="29"/>
@@ -10317,10 +10324,10 @@
         <v>61</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F78" s="28"/>
       <c r="G78" s="29"/>
@@ -10351,10 +10358,10 @@
         <v>61</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="29"/>
@@ -10385,10 +10392,10 @@
         <v>61</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="29"/>
@@ -10419,10 +10426,10 @@
         <v>61</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="29"/>
@@ -10453,10 +10460,10 @@
         <v>70</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F82" s="28"/>
       <c r="G82" s="29"/>
@@ -10487,10 +10494,10 @@
         <v>70</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F83" s="28"/>
       <c r="G83" s="29"/>
@@ -10521,10 +10528,10 @@
         <v>70</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E84" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F84" s="28"/>
       <c r="G84" s="29"/>
@@ -10555,10 +10562,10 @@
         <v>70</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F85" s="28"/>
       <c r="G85" s="29"/>
@@ -10589,10 +10596,10 @@
         <v>70</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E86" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F86" s="28"/>
       <c r="G86" s="29"/>
@@ -10623,10 +10630,10 @@
         <v>70</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F87" s="28"/>
       <c r="G87" s="29"/>
@@ -10657,10 +10664,10 @@
         <v>70</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F88" s="28"/>
       <c r="G88" s="29"/>
@@ -10691,10 +10698,10 @@
         <v>70</v>
       </c>
       <c r="D89" s="26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F89" s="28"/>
       <c r="G89" s="29"/>
@@ -10725,10 +10732,10 @@
         <v>70</v>
       </c>
       <c r="D90" s="26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E90" s="27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F90" s="28"/>
       <c r="G90" s="29"/>
@@ -10759,10 +10766,10 @@
         <v>70</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F91" s="28"/>
       <c r="G91" s="29"/>
@@ -10793,10 +10800,10 @@
         <v>70</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E92" s="27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F92" s="28"/>
       <c r="G92" s="29"/>
@@ -10827,10 +10834,10 @@
         <v>70</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F93" s="28"/>
       <c r="G93" s="29"/>
@@ -10861,10 +10868,10 @@
         <v>70</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E94" s="27" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F94" s="28"/>
       <c r="G94" s="29"/>
@@ -10895,10 +10902,10 @@
         <v>70</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="29"/>
@@ -10929,10 +10936,10 @@
         <v>70</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E96" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="29"/>
@@ -10963,10 +10970,10 @@
         <v>70</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F97" s="28"/>
       <c r="G97" s="29"/>
@@ -10997,10 +11004,10 @@
         <v>70</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F98" s="28"/>
       <c r="G98" s="29"/>
@@ -11031,10 +11038,10 @@
         <v>70</v>
       </c>
       <c r="D99" s="26" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F99" s="28"/>
       <c r="G99" s="29"/>
@@ -11065,10 +11072,10 @@
         <v>70</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E100" s="27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F100" s="28"/>
       <c r="G100" s="29"/>
@@ -11099,10 +11106,10 @@
         <v>79</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F101" s="28"/>
       <c r="G101" s="29"/>
@@ -11133,10 +11140,10 @@
         <v>79</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E102" s="27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F102" s="28"/>
       <c r="G102" s="29"/>
@@ -11167,10 +11174,10 @@
         <v>79</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F103" s="28"/>
       <c r="G103" s="29"/>
@@ -11201,10 +11208,10 @@
         <v>79</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E104" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F104" s="28"/>
       <c r="G104" s="29"/>
@@ -11235,10 +11242,10 @@
         <v>79</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F105" s="28"/>
       <c r="G105" s="29"/>
@@ -11269,10 +11276,10 @@
         <v>79</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E106" s="27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F106" s="28"/>
       <c r="G106" s="29"/>
@@ -11303,10 +11310,10 @@
         <v>79</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F107" s="28"/>
       <c r="G107" s="29"/>
@@ -11337,10 +11344,10 @@
         <v>79</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E108" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F108" s="28"/>
       <c r="G108" s="29"/>
@@ -11371,10 +11378,10 @@
         <v>79</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F109" s="28"/>
       <c r="G109" s="29"/>
@@ -11405,10 +11412,10 @@
         <v>79</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E110" s="27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F110" s="28"/>
       <c r="G110" s="29"/>
@@ -11439,10 +11446,10 @@
         <v>79</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F111" s="28"/>
       <c r="G111" s="29"/>
@@ -11473,10 +11480,10 @@
         <v>79</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F112" s="28"/>
       <c r="G112" s="29"/>
@@ -11507,10 +11514,10 @@
         <v>79</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F113" s="28"/>
       <c r="G113" s="29"/>
@@ -11541,10 +11548,10 @@
         <v>88</v>
       </c>
       <c r="D114" s="26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F114" s="28"/>
       <c r="G114" s="29"/>
@@ -11575,10 +11582,10 @@
         <v>88</v>
       </c>
       <c r="D115" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F115" s="28"/>
       <c r="G115" s="29"/>
@@ -11609,10 +11616,10 @@
         <v>88</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F116" s="28"/>
       <c r="G116" s="29"/>
@@ -11643,10 +11650,10 @@
         <v>88</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F117" s="28"/>
       <c r="G117" s="29"/>
@@ -11677,10 +11684,10 @@
         <v>88</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F118" s="28"/>
       <c r="G118" s="29"/>
@@ -11711,10 +11718,10 @@
         <v>88</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F119" s="28"/>
       <c r="G119" s="29"/>
@@ -11745,10 +11752,10 @@
         <v>88</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F120" s="28"/>
       <c r="G120" s="29"/>
@@ -11779,10 +11786,10 @@
         <v>88</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F121" s="28"/>
       <c r="G121" s="29"/>
@@ -11813,10 +11820,10 @@
         <v>88</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E122" s="27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F122" s="28"/>
       <c r="G122" s="29"/>
@@ -11847,10 +11854,10 @@
         <v>88</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F123" s="28"/>
       <c r="G123" s="29"/>
@@ -11881,10 +11888,10 @@
         <v>88</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E124" s="27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F124" s="28"/>
       <c r="G124" s="29"/>
@@ -11915,10 +11922,10 @@
         <v>88</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F125" s="28"/>
       <c r="G125" s="29"/>
@@ -11949,10 +11956,10 @@
         <v>88</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E126" s="27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F126" s="28"/>
       <c r="G126" s="29"/>
@@ -11983,10 +11990,10 @@
         <v>88</v>
       </c>
       <c r="D127" s="26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F127" s="28"/>
       <c r="G127" s="29"/>
@@ -12017,10 +12024,10 @@
         <v>88</v>
       </c>
       <c r="D128" s="26" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E128" s="27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F128" s="28"/>
       <c r="G128" s="29"/>
@@ -12051,10 +12058,10 @@
         <v>97</v>
       </c>
       <c r="D129" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E129" s="27" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F129" s="28"/>
       <c r="G129" s="29"/>
@@ -12085,10 +12092,10 @@
         <v>97</v>
       </c>
       <c r="D130" s="26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E130" s="27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F130" s="28"/>
       <c r="G130" s="29"/>
@@ -12119,10 +12126,10 @@
         <v>97</v>
       </c>
       <c r="D131" s="26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F131" s="28"/>
       <c r="G131" s="29"/>
@@ -12153,10 +12160,10 @@
         <v>97</v>
       </c>
       <c r="D132" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E132" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F132" s="28"/>
       <c r="G132" s="29"/>
@@ -12187,10 +12194,10 @@
         <v>97</v>
       </c>
       <c r="D133" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E133" s="27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F133" s="28"/>
       <c r="G133" s="29"/>
@@ -12221,10 +12228,10 @@
         <v>97</v>
       </c>
       <c r="D134" s="26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E134" s="27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F134" s="28"/>
       <c r="G134" s="29"/>
@@ -12255,10 +12262,10 @@
         <v>97</v>
       </c>
       <c r="D135" s="26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E135" s="27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F135" s="28"/>
       <c r="G135" s="29"/>
@@ -12289,10 +12296,10 @@
         <v>97</v>
       </c>
       <c r="D136" s="26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F136" s="28"/>
       <c r="G136" s="29"/>
@@ -12323,10 +12330,10 @@
         <v>97</v>
       </c>
       <c r="D137" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E137" s="27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F137" s="28"/>
       <c r="G137" s="29"/>
@@ -12357,10 +12364,10 @@
         <v>97</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E138" s="27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F138" s="28"/>
       <c r="G138" s="29"/>
@@ -12391,10 +12398,10 @@
         <v>97</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E139" s="27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F139" s="28"/>
       <c r="G139" s="29"/>
@@ -12425,10 +12432,10 @@
         <v>97</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E140" s="27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F140" s="28"/>
       <c r="G140" s="29"/>
@@ -12459,10 +12466,10 @@
         <v>97</v>
       </c>
       <c r="D141" s="26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E141" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F141" s="28"/>
       <c r="G141" s="29"/>
@@ -12493,10 +12500,10 @@
         <v>97</v>
       </c>
       <c r="D142" s="26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E142" s="27" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F142" s="28"/>
       <c r="G142" s="29"/>
@@ -12527,10 +12534,10 @@
         <v>97</v>
       </c>
       <c r="D143" s="26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F143" s="28"/>
       <c r="G143" s="29"/>
@@ -12561,10 +12568,10 @@
         <v>97</v>
       </c>
       <c r="D144" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E144" s="27" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F144" s="28"/>
       <c r="G144" s="29"/>
@@ -12595,10 +12602,10 @@
         <v>97</v>
       </c>
       <c r="D145" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E145" s="27" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F145" s="28"/>
       <c r="G145" s="29"/>
@@ -12629,10 +12636,10 @@
         <v>97</v>
       </c>
       <c r="D146" s="26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E146" s="27" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F146" s="28"/>
       <c r="G146" s="29"/>
@@ -12663,10 +12670,10 @@
         <v>97</v>
       </c>
       <c r="D147" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E147" s="27" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F147" s="28"/>
       <c r="G147" s="29"/>
@@ -12697,10 +12704,10 @@
         <v>97</v>
       </c>
       <c r="D148" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E148" s="27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F148" s="28"/>
       <c r="G148" s="29"/>
@@ -12731,10 +12738,10 @@
         <v>97</v>
       </c>
       <c r="D149" s="26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E149" s="27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F149" s="28"/>
       <c r="G149" s="29"/>
@@ -12765,10 +12772,10 @@
         <v>97</v>
       </c>
       <c r="D150" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E150" s="27" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F150" s="28"/>
       <c r="G150" s="29"/>
@@ -12799,10 +12806,10 @@
         <v>97</v>
       </c>
       <c r="D151" s="26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E151" s="27" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F151" s="28"/>
       <c r="G151" s="29"/>
@@ -12833,10 +12840,10 @@
         <v>97</v>
       </c>
       <c r="D152" s="26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E152" s="27" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F152" s="28"/>
       <c r="G152" s="29"/>
@@ -12867,10 +12874,10 @@
         <v>97</v>
       </c>
       <c r="D153" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E153" s="27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F153" s="28"/>
       <c r="G153" s="29"/>
@@ -12901,10 +12908,10 @@
         <v>120</v>
       </c>
       <c r="D154" s="26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E154" s="27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F154" s="28"/>
       <c r="G154" s="29"/>
@@ -12935,10 +12942,10 @@
         <v>120</v>
       </c>
       <c r="D155" s="26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E155" s="27" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F155" s="28"/>
       <c r="G155" s="29"/>
@@ -12969,10 +12976,10 @@
         <v>120</v>
       </c>
       <c r="D156" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E156" s="27" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F156" s="28"/>
       <c r="G156" s="29"/>
@@ -13003,10 +13010,10 @@
         <v>120</v>
       </c>
       <c r="D157" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E157" s="27" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F157" s="28"/>
       <c r="G157" s="29"/>
@@ -13037,10 +13044,10 @@
         <v>120</v>
       </c>
       <c r="D158" s="26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E158" s="27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F158" s="28"/>
       <c r="G158" s="29"/>
@@ -13071,10 +13078,10 @@
         <v>120</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E159" s="27" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F159" s="28"/>
       <c r="G159" s="29"/>
@@ -13105,10 +13112,10 @@
         <v>120</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E160" s="27" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F160" s="28"/>
       <c r="G160" s="29"/>
@@ -13139,10 +13146,10 @@
         <v>120</v>
       </c>
       <c r="D161" s="26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E161" s="27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F161" s="28"/>
       <c r="G161" s="29"/>
@@ -13173,10 +13180,10 @@
         <v>120</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F162" s="28"/>
       <c r="G162" s="29"/>
@@ -13207,10 +13214,10 @@
         <v>120</v>
       </c>
       <c r="D163" s="26" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F163" s="28"/>
       <c r="G163" s="29"/>
@@ -13241,10 +13248,10 @@
         <v>120</v>
       </c>
       <c r="D164" s="26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E164" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F164" s="28"/>
       <c r="G164" s="29"/>
@@ -13275,10 +13282,10 @@
         <v>120</v>
       </c>
       <c r="D165" s="26" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F165" s="28"/>
       <c r="G165" s="29"/>
@@ -13309,10 +13316,10 @@
         <v>120</v>
       </c>
       <c r="D166" s="26" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F166" s="28"/>
       <c r="G166" s="29"/>
@@ -13343,10 +13350,10 @@
         <v>120</v>
       </c>
       <c r="D167" s="26" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E167" s="27" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F167" s="28"/>
       <c r="G167" s="29"/>
@@ -13377,10 +13384,10 @@
         <v>120</v>
       </c>
       <c r="D168" s="26" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E168" s="27" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F168" s="28"/>
       <c r="G168" s="29"/>
@@ -13411,10 +13418,10 @@
         <v>120</v>
       </c>
       <c r="D169" s="26" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E169" s="27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F169" s="28"/>
       <c r="G169" s="29"/>
@@ -13445,10 +13452,10 @@
         <v>120</v>
       </c>
       <c r="D170" s="26" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E170" s="27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F170" s="28"/>
       <c r="G170" s="29"/>
@@ -13479,10 +13486,10 @@
         <v>120</v>
       </c>
       <c r="D171" s="26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E171" s="27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F171" s="28"/>
       <c r="G171" s="29"/>
@@ -13513,10 +13520,10 @@
         <v>120</v>
       </c>
       <c r="D172" s="26" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E172" s="27" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F172" s="28"/>
       <c r="G172" s="29"/>
@@ -13547,10 +13554,10 @@
         <v>120</v>
       </c>
       <c r="D173" s="26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E173" s="27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F173" s="28"/>
       <c r="G173" s="29"/>
@@ -13581,10 +13588,10 @@
         <v>120</v>
       </c>
       <c r="D174" s="26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E174" s="27" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F174" s="28"/>
       <c r="G174" s="29"/>
@@ -13615,10 +13622,10 @@
         <v>120</v>
       </c>
       <c r="D175" s="26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E175" s="27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F175" s="28"/>
       <c r="G175" s="29"/>
@@ -13649,10 +13656,10 @@
         <v>120</v>
       </c>
       <c r="D176" s="26" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E176" s="27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F176" s="28"/>
       <c r="G176" s="29"/>
@@ -13683,10 +13690,10 @@
         <v>110</v>
       </c>
       <c r="D177" s="36" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E177" s="37" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F177" s="28" t="n">
         <v>45392</v>
@@ -13695,10 +13702,10 @@
         <v>129</v>
       </c>
       <c r="H177" s="30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I177" s="30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J177" s="38" t="s">
         <v>115</v>
@@ -13728,22 +13735,22 @@
         <v>110</v>
       </c>
       <c r="D178" s="36" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E178" s="37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F178" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G178" s="30" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H178" s="30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I178" s="30" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J178" s="38" t="s">
         <v>115</v>
@@ -13773,22 +13780,22 @@
         <v>110</v>
       </c>
       <c r="D179" s="36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E179" s="37" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F179" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G179" s="30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H179" s="30" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I179" s="30" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J179" s="38" t="s">
         <v>115</v>
@@ -13818,22 +13825,22 @@
         <v>110</v>
       </c>
       <c r="D180" s="36" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E180" s="37" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F180" s="28" t="n">
         <v>45397</v>
       </c>
       <c r="G180" s="30" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H180" s="30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I180" s="30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J180" s="38" t="s">
         <v>115</v>
@@ -13863,22 +13870,22 @@
         <v>110</v>
       </c>
       <c r="D181" s="26" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E181" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F181" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G181" s="30" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H181" s="30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I181" s="30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J181" s="30" t="s">
         <v>115</v>
@@ -13891,7 +13898,7 @@
         <v>115</v>
       </c>
       <c r="N181" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O181" s="30" t="s">
         <v>115</v>
@@ -13917,22 +13924,22 @@
         <v>110</v>
       </c>
       <c r="D182" s="26" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F182" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G182" s="30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H182" s="30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I182" s="30" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J182" s="30" t="s">
         <v>115</v>
@@ -13945,7 +13952,7 @@
         <v>115</v>
       </c>
       <c r="N182" s="27" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O182" s="30" t="s">
         <v>115</v>
@@ -13971,22 +13978,22 @@
         <v>110</v>
       </c>
       <c r="D183" s="26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E183" s="27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F183" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G183" s="30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H183" s="30" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I183" s="30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J183" s="30" t="s">
         <v>115</v>
@@ -13999,7 +14006,7 @@
         <v>115</v>
       </c>
       <c r="N183" s="27" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O183" s="30" t="s">
         <v>115</v>
@@ -14025,22 +14032,22 @@
         <v>110</v>
       </c>
       <c r="D184" s="26" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E184" s="27" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F184" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G184" s="30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H184" s="30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I184" s="30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J184" s="30" t="s">
         <v>115</v>
@@ -14053,7 +14060,7 @@
         <v>115</v>
       </c>
       <c r="N184" s="27" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O184" s="30" t="s">
         <v>115</v>
@@ -14079,22 +14086,22 @@
         <v>110</v>
       </c>
       <c r="D185" s="26" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E185" s="27" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F185" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G185" s="30" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H185" s="30" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I185" s="30" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J185" s="30" t="s">
         <v>115</v>
@@ -14107,7 +14114,7 @@
         <v>115</v>
       </c>
       <c r="N185" s="27" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O185" s="30" t="s">
         <v>115</v>
@@ -14133,22 +14140,22 @@
         <v>110</v>
       </c>
       <c r="D186" s="26" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E186" s="27" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F186" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G186" s="30" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H186" s="30" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I186" s="30" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J186" s="30" t="s">
         <v>115</v>
@@ -14161,7 +14168,7 @@
         <v>115</v>
       </c>
       <c r="N186" s="27" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O186" s="30" t="s">
         <v>115</v>
@@ -14187,22 +14194,22 @@
         <v>110</v>
       </c>
       <c r="D187" s="26" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E187" s="27" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F187" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G187" s="30" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H187" s="30" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I187" s="30" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J187" s="30" t="s">
         <v>115</v>
@@ -14215,7 +14222,7 @@
         <v>115</v>
       </c>
       <c r="N187" s="27" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O187" s="30" t="s">
         <v>115</v>
@@ -14241,22 +14248,22 @@
         <v>110</v>
       </c>
       <c r="D188" s="26" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E188" s="27" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F188" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G188" s="30" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H188" s="30" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I188" s="30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J188" s="30" t="s">
         <v>115</v>
@@ -14269,7 +14276,7 @@
         <v>115</v>
       </c>
       <c r="N188" s="27" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O188" s="30" t="s">
         <v>115</v>
@@ -14295,22 +14302,22 @@
         <v>110</v>
       </c>
       <c r="D189" s="26" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F189" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G189" s="30" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H189" s="30" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I189" s="30" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J189" s="30" t="s">
         <v>115</v>
@@ -14323,7 +14330,7 @@
         <v>115</v>
       </c>
       <c r="N189" s="27" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O189" s="30" t="s">
         <v>115</v>
@@ -14349,22 +14356,22 @@
         <v>110</v>
       </c>
       <c r="D190" s="26" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E190" s="27" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F190" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G190" s="30" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H190" s="30" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I190" s="30" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J190" s="30" t="s">
         <v>115</v>
@@ -14377,7 +14384,7 @@
         <v>115</v>
       </c>
       <c r="N190" s="27" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O190" s="30" t="s">
         <v>115</v>
@@ -14403,22 +14410,22 @@
         <v>110</v>
       </c>
       <c r="D191" s="26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E191" s="27" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F191" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G191" s="30" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H191" s="30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I191" s="30" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J191" s="30" t="s">
         <v>115</v>
@@ -14431,7 +14438,7 @@
         <v>115</v>
       </c>
       <c r="N191" s="27" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O191" s="30" t="s">
         <v>115</v>
@@ -14457,22 +14464,22 @@
         <v>110</v>
       </c>
       <c r="D192" s="26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E192" s="27" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F192" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G192" s="30" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H192" s="30" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I192" s="30" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J192" s="30" t="s">
         <v>115</v>
@@ -14485,7 +14492,7 @@
         <v>115</v>
       </c>
       <c r="N192" s="27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O192" s="30" t="s">
         <v>115</v>
@@ -14511,22 +14518,22 @@
         <v>110</v>
       </c>
       <c r="D193" s="26" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E193" s="27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F193" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G193" s="30" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H193" s="30" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I193" s="30" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="J193" s="30" t="s">
         <v>115</v>
@@ -14539,7 +14546,7 @@
         <v>115</v>
       </c>
       <c r="N193" s="27" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O193" s="30" t="s">
         <v>115</v>
@@ -14565,22 +14572,22 @@
         <v>110</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E194" s="27" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F194" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G194" s="30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H194" s="30" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I194" s="30" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J194" s="30" t="s">
         <v>115</v>
@@ -14593,7 +14600,7 @@
         <v>115</v>
       </c>
       <c r="N194" s="27" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O194" s="30" t="s">
         <v>115</v>
@@ -14619,22 +14626,22 @@
         <v>110</v>
       </c>
       <c r="D195" s="26" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E195" s="27" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F195" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G195" s="30" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H195" s="30" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I195" s="30" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J195" s="30" t="s">
         <v>115</v>
@@ -14647,7 +14654,7 @@
         <v>115</v>
       </c>
       <c r="N195" s="27" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O195" s="30" t="s">
         <v>115</v>
@@ -14673,22 +14680,22 @@
         <v>110</v>
       </c>
       <c r="D196" s="26" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E196" s="27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F196" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G196" s="30" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H196" s="30" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I196" s="30" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J196" s="30" t="s">
         <v>115</v>
@@ -14701,7 +14708,7 @@
         <v>115</v>
       </c>
       <c r="N196" s="27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="O196" s="30" t="s">
         <v>115</v>
@@ -14727,22 +14734,22 @@
         <v>110</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E197" s="27" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F197" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G197" s="30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H197" s="30" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I197" s="30" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J197" s="30" t="s">
         <v>115</v>
@@ -14755,7 +14762,7 @@
         <v>115</v>
       </c>
       <c r="N197" s="27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O197" s="30" t="s">
         <v>115</v>
@@ -14781,10 +14788,10 @@
         <v>49</v>
       </c>
       <c r="D198" s="26" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E198" s="27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F198" s="28"/>
       <c r="G198" s="29"/>
@@ -14809,16 +14816,16 @@
         <v>192</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C199" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D199" s="26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E199" s="27" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F199" s="28"/>
       <c r="G199" s="29"/>
@@ -14843,16 +14850,16 @@
         <v>193</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C200" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D200" s="26" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E200" s="27" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F200" s="28"/>
       <c r="G200" s="29"/>
@@ -14877,16 +14884,16 @@
         <v>194</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C201" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D201" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E201" s="27" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F201" s="28"/>
       <c r="G201" s="29"/>
@@ -14911,16 +14918,16 @@
         <v>195</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C202" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D202" s="26" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E202" s="27" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F202" s="28"/>
       <c r="G202" s="29"/>
@@ -14945,16 +14952,16 @@
         <v>196</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C203" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D203" s="26" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E203" s="27" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F203" s="28"/>
       <c r="G203" s="29"/>
@@ -14979,16 +14986,16 @@
         <v>197</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C204" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D204" s="26" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E204" s="27" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F204" s="28"/>
       <c r="G204" s="29"/>
@@ -15013,16 +15020,16 @@
         <v>198</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C205" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D205" s="26" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E205" s="27" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F205" s="28"/>
       <c r="G205" s="29"/>
@@ -15047,16 +15054,16 @@
         <v>199</v>
       </c>
       <c r="B206" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C206" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D206" s="26" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E206" s="27" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F206" s="28"/>
       <c r="G206" s="29"/>
@@ -15081,16 +15088,16 @@
         <v>200</v>
       </c>
       <c r="B207" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C207" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D207" s="26" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E207" s="27" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F207" s="28"/>
       <c r="G207" s="29"/>
@@ -15115,16 +15122,16 @@
         <v>201</v>
       </c>
       <c r="B208" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C208" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D208" s="26" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E208" s="27" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F208" s="28"/>
       <c r="G208" s="29"/>
@@ -15149,16 +15156,16 @@
         <v>202</v>
       </c>
       <c r="B209" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C209" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D209" s="26" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E209" s="27" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F209" s="28"/>
       <c r="G209" s="29"/>
@@ -15183,16 +15190,16 @@
         <v>203</v>
       </c>
       <c r="B210" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C210" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D210" s="26" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E210" s="27" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F210" s="28"/>
       <c r="G210" s="29"/>
@@ -15217,16 +15224,16 @@
         <v>204</v>
       </c>
       <c r="B211" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C211" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D211" s="26" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E211" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F211" s="28"/>
       <c r="G211" s="29"/>
@@ -15251,16 +15258,16 @@
         <v>205</v>
       </c>
       <c r="B212" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C212" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D212" s="26" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E212" s="27" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F212" s="28"/>
       <c r="G212" s="29"/>
@@ -15285,16 +15292,16 @@
         <v>206</v>
       </c>
       <c r="B213" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C213" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D213" s="26" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E213" s="27" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F213" s="28"/>
       <c r="G213" s="29"/>
@@ -15319,16 +15326,16 @@
         <v>207</v>
       </c>
       <c r="B214" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C214" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D214" s="26" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E214" s="27" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F214" s="28"/>
       <c r="G214" s="29"/>
@@ -15353,16 +15360,16 @@
         <v>208</v>
       </c>
       <c r="B215" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C215" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D215" s="26" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E215" s="27" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F215" s="28"/>
       <c r="G215" s="29"/>
@@ -15387,16 +15394,16 @@
         <v>209</v>
       </c>
       <c r="B216" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C216" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D216" s="26" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E216" s="27" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F216" s="28"/>
       <c r="G216" s="29"/>
@@ -15421,16 +15428,16 @@
         <v>210</v>
       </c>
       <c r="B217" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C217" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D217" s="26" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E217" s="27" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F217" s="28"/>
       <c r="G217" s="29"/>
@@ -15455,16 +15462,16 @@
         <v>211</v>
       </c>
       <c r="B218" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C218" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D218" s="26" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E218" s="27" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F218" s="28"/>
       <c r="G218" s="29"/>
@@ -15489,16 +15496,16 @@
         <v>212</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C219" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D219" s="26" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E219" s="27" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F219" s="28"/>
       <c r="G219" s="29"/>
@@ -15523,16 +15530,16 @@
         <v>213</v>
       </c>
       <c r="B220" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C220" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D220" s="26" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E220" s="27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F220" s="28"/>
       <c r="G220" s="29"/>
@@ -15557,16 +15564,16 @@
         <v>214</v>
       </c>
       <c r="B221" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C221" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D221" s="26" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E221" s="27" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F221" s="28"/>
       <c r="G221" s="29"/>
@@ -15591,16 +15598,16 @@
         <v>215</v>
       </c>
       <c r="B222" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C222" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E222" s="27" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F222" s="28"/>
       <c r="G222" s="29"/>
@@ -15625,16 +15632,16 @@
         <v>216</v>
       </c>
       <c r="B223" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C223" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D223" s="26" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E223" s="27" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F223" s="28"/>
       <c r="G223" s="29"/>
@@ -15659,16 +15666,16 @@
         <v>217</v>
       </c>
       <c r="B224" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C224" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D224" s="26" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E224" s="27" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F224" s="28"/>
       <c r="G224" s="29"/>
@@ -15693,16 +15700,16 @@
         <v>218</v>
       </c>
       <c r="B225" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C225" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="E225" s="27" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F225" s="28"/>
       <c r="G225" s="29"/>
@@ -15727,16 +15734,16 @@
         <v>219</v>
       </c>
       <c r="B226" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C226" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D226" s="26" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E226" s="27" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F226" s="28"/>
       <c r="G226" s="29"/>
@@ -15761,16 +15768,16 @@
         <v>220</v>
       </c>
       <c r="B227" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C227" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D227" s="26" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E227" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F227" s="28"/>
       <c r="G227" s="29"/>
@@ -15795,16 +15802,16 @@
         <v>221</v>
       </c>
       <c r="B228" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C228" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D228" s="26" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E228" s="27" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F228" s="28"/>
       <c r="G228" s="29"/>
@@ -15829,16 +15836,16 @@
         <v>222</v>
       </c>
       <c r="B229" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C229" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D229" s="26" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E229" s="27" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F229" s="28"/>
       <c r="G229" s="29"/>
@@ -15863,16 +15870,16 @@
         <v>223</v>
       </c>
       <c r="B230" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C230" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D230" s="26" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E230" s="27" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F230" s="28"/>
       <c r="G230" s="29"/>
@@ -15897,16 +15904,16 @@
         <v>224</v>
       </c>
       <c r="B231" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C231" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D231" s="26" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E231" s="27" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F231" s="28"/>
       <c r="G231" s="29"/>
@@ -15931,16 +15938,16 @@
         <v>225</v>
       </c>
       <c r="B232" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C232" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D232" s="26" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E232" s="27" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F232" s="28"/>
       <c r="G232" s="29"/>
@@ -15965,16 +15972,16 @@
         <v>226</v>
       </c>
       <c r="B233" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C233" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D233" s="26" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E233" s="27" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F233" s="28"/>
       <c r="G233" s="29"/>
@@ -15999,16 +16006,16 @@
         <v>227</v>
       </c>
       <c r="B234" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C234" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D234" s="26" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E234" s="27" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F234" s="28"/>
       <c r="G234" s="29"/>
@@ -16033,16 +16040,16 @@
         <v>228</v>
       </c>
       <c r="B235" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C235" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D235" s="26" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E235" s="27" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F235" s="28"/>
       <c r="G235" s="29"/>
@@ -16067,16 +16074,16 @@
         <v>229</v>
       </c>
       <c r="B236" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C236" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D236" s="26" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E236" s="27" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F236" s="28"/>
       <c r="G236" s="29"/>
@@ -16101,16 +16108,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C237" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D237" s="26" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E237" s="27" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F237" s="28"/>
       <c r="G237" s="29"/>
@@ -16135,16 +16142,16 @@
         <v>231</v>
       </c>
       <c r="B238" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C238" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D238" s="26" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E238" s="27" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F238" s="28"/>
       <c r="G238" s="29"/>
@@ -16169,16 +16176,16 @@
         <v>232</v>
       </c>
       <c r="B239" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C239" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D239" s="26" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E239" s="27" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F239" s="28"/>
       <c r="G239" s="29"/>
@@ -16203,16 +16210,16 @@
         <v>233</v>
       </c>
       <c r="B240" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C240" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D240" s="26" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E240" s="27" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F240" s="28"/>
       <c r="G240" s="29"/>
@@ -16237,16 +16244,16 @@
         <v>234</v>
       </c>
       <c r="B241" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C241" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D241" s="26" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E241" s="27" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F241" s="28"/>
       <c r="G241" s="29"/>
@@ -16271,16 +16278,16 @@
         <v>235</v>
       </c>
       <c r="B242" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C242" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D242" s="26" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E242" s="27" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F242" s="28"/>
       <c r="G242" s="29"/>
@@ -16305,16 +16312,16 @@
         <v>236</v>
       </c>
       <c r="B243" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C243" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D243" s="26" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E243" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F243" s="28"/>
       <c r="G243" s="29"/>
@@ -16339,16 +16346,16 @@
         <v>237</v>
       </c>
       <c r="B244" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C244" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D244" s="26" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E244" s="27" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F244" s="28"/>
       <c r="G244" s="29"/>
@@ -16373,16 +16380,16 @@
         <v>238</v>
       </c>
       <c r="B245" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C245" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D245" s="26" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E245" s="27" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F245" s="28"/>
       <c r="G245" s="29"/>
@@ -16407,16 +16414,16 @@
         <v>239</v>
       </c>
       <c r="B246" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C246" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D246" s="26" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E246" s="27" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F246" s="28"/>
       <c r="G246" s="29"/>
@@ -16441,16 +16448,16 @@
         <v>240</v>
       </c>
       <c r="B247" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C247" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D247" s="26" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E247" s="27" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F247" s="28"/>
       <c r="G247" s="29"/>
@@ -16475,16 +16482,16 @@
         <v>241</v>
       </c>
       <c r="B248" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C248" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D248" s="26" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E248" s="27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F248" s="28"/>
       <c r="G248" s="29"/>
@@ -16509,16 +16516,16 @@
         <v>242</v>
       </c>
       <c r="B249" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C249" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E249" s="27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F249" s="28"/>
       <c r="G249" s="29"/>
@@ -16543,16 +16550,16 @@
         <v>243</v>
       </c>
       <c r="B250" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C250" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E250" s="27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F250" s="28"/>
       <c r="G250" s="29"/>
@@ -16577,16 +16584,16 @@
         <v>244</v>
       </c>
       <c r="B251" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C251" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D251" s="26" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E251" s="27" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F251" s="28"/>
       <c r="G251" s="29"/>
@@ -16611,16 +16618,16 @@
         <v>245</v>
       </c>
       <c r="B252" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C252" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D252" s="26" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E252" s="27" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F252" s="28"/>
       <c r="G252" s="29"/>
@@ -16645,16 +16652,16 @@
         <v>246</v>
       </c>
       <c r="B253" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C253" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D253" s="26" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="E253" s="27" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F253" s="28"/>
       <c r="G253" s="29"/>
@@ -16679,16 +16686,16 @@
         <v>247</v>
       </c>
       <c r="B254" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C254" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D254" s="26" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E254" s="27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F254" s="28"/>
       <c r="G254" s="29"/>
@@ -16713,16 +16720,16 @@
         <v>248</v>
       </c>
       <c r="B255" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C255" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D255" s="26" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E255" s="27" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F255" s="28"/>
       <c r="G255" s="29"/>
@@ -16747,16 +16754,16 @@
         <v>249</v>
       </c>
       <c r="B256" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C256" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D256" s="26" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E256" s="27" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F256" s="28"/>
       <c r="G256" s="29"/>
@@ -16781,16 +16788,16 @@
         <v>250</v>
       </c>
       <c r="B257" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C257" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D257" s="26" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E257" s="27" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F257" s="28"/>
       <c r="G257" s="29"/>
@@ -16815,16 +16822,16 @@
         <v>251</v>
       </c>
       <c r="B258" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C258" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D258" s="26" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E258" s="27" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F258" s="28"/>
       <c r="G258" s="29"/>
@@ -16849,16 +16856,16 @@
         <v>252</v>
       </c>
       <c r="B259" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C259" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D259" s="26" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E259" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F259" s="28"/>
       <c r="G259" s="29"/>
@@ -16883,16 +16890,16 @@
         <v>253</v>
       </c>
       <c r="B260" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C260" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D260" s="26" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E260" s="27" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F260" s="28"/>
       <c r="G260" s="29"/>
@@ -16917,16 +16924,16 @@
         <v>254</v>
       </c>
       <c r="B261" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C261" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D261" s="26" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E261" s="27" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F261" s="28"/>
       <c r="G261" s="29"/>
@@ -16951,16 +16958,16 @@
         <v>255</v>
       </c>
       <c r="B262" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C262" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D262" s="26" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E262" s="27" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F262" s="28"/>
       <c r="G262" s="29"/>
@@ -16985,16 +16992,16 @@
         <v>256</v>
       </c>
       <c r="B263" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C263" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D263" s="26" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E263" s="27" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F263" s="28"/>
       <c r="G263" s="29"/>
@@ -17019,16 +17026,16 @@
         <v>257</v>
       </c>
       <c r="B264" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C264" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D264" s="26" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E264" s="27" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F264" s="28"/>
       <c r="G264" s="29"/>
@@ -17053,16 +17060,16 @@
         <v>258</v>
       </c>
       <c r="B265" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C265" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D265" s="26" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E265" s="27" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F265" s="28"/>
       <c r="G265" s="29"/>
@@ -17087,16 +17094,16 @@
         <v>259</v>
       </c>
       <c r="B266" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C266" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E266" s="27" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F266" s="28"/>
       <c r="G266" s="29"/>
@@ -17121,16 +17128,16 @@
         <v>260</v>
       </c>
       <c r="B267" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C267" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D267" s="26" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E267" s="27" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F267" s="28"/>
       <c r="G267" s="29"/>
@@ -17155,16 +17162,16 @@
         <v>261</v>
       </c>
       <c r="B268" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C268" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D268" s="26" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E268" s="27" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F268" s="28"/>
       <c r="G268" s="29"/>
@@ -17189,16 +17196,16 @@
         <v>262</v>
       </c>
       <c r="B269" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C269" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D269" s="26" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E269" s="27" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F269" s="28"/>
       <c r="G269" s="29"/>
@@ -17223,16 +17230,16 @@
         <v>263</v>
       </c>
       <c r="B270" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C270" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D270" s="26" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E270" s="27" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F270" s="28"/>
       <c r="G270" s="29"/>
@@ -17257,16 +17264,16 @@
         <v>264</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C271" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D271" s="26" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E271" s="27" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F271" s="28"/>
       <c r="G271" s="29"/>
@@ -17291,16 +17298,16 @@
         <v>265</v>
       </c>
       <c r="B272" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C272" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D272" s="26" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E272" s="27" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F272" s="28"/>
       <c r="G272" s="29"/>
@@ -17325,16 +17332,16 @@
         <v>266</v>
       </c>
       <c r="B273" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C273" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D273" s="26" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E273" s="27" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F273" s="28"/>
       <c r="G273" s="29"/>
@@ -17359,16 +17366,16 @@
         <v>267</v>
       </c>
       <c r="B274" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C274" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D274" s="26" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E274" s="27" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F274" s="28"/>
       <c r="G274" s="29"/>
@@ -17393,16 +17400,16 @@
         <v>268</v>
       </c>
       <c r="B275" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C275" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D275" s="26" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E275" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F275" s="28"/>
       <c r="G275" s="29"/>
@@ -17427,16 +17434,16 @@
         <v>269</v>
       </c>
       <c r="B276" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C276" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D276" s="26" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E276" s="27" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F276" s="28"/>
       <c r="G276" s="29"/>
@@ -17461,16 +17468,16 @@
         <v>270</v>
       </c>
       <c r="B277" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C277" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D277" s="26" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E277" s="27" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F277" s="28"/>
       <c r="G277" s="29"/>
@@ -17495,16 +17502,16 @@
         <v>271</v>
       </c>
       <c r="B278" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C278" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D278" s="26" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E278" s="27" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F278" s="28"/>
       <c r="G278" s="29"/>
@@ -17529,16 +17536,16 @@
         <v>272</v>
       </c>
       <c r="B279" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C279" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D279" s="26" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E279" s="27" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F279" s="28"/>
       <c r="G279" s="29"/>
@@ -17563,16 +17570,16 @@
         <v>273</v>
       </c>
       <c r="B280" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C280" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D280" s="26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E280" s="27" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F280" s="28"/>
       <c r="G280" s="29"/>
@@ -17597,16 +17604,16 @@
         <v>274</v>
       </c>
       <c r="B281" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C281" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D281" s="26" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E281" s="27" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F281" s="28"/>
       <c r="G281" s="29"/>
@@ -17631,16 +17638,16 @@
         <v>275</v>
       </c>
       <c r="B282" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C282" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D282" s="26" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="E282" s="27" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F282" s="28"/>
       <c r="G282" s="29"/>
@@ -17665,16 +17672,16 @@
         <v>276</v>
       </c>
       <c r="B283" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C283" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D283" s="26" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E283" s="27" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F283" s="28"/>
       <c r="G283" s="29"/>
@@ -17699,16 +17706,16 @@
         <v>277</v>
       </c>
       <c r="B284" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C284" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D284" s="26" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E284" s="27" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F284" s="28"/>
       <c r="G284" s="29"/>
@@ -17733,16 +17740,16 @@
         <v>278</v>
       </c>
       <c r="B285" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C285" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D285" s="26" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E285" s="27" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F285" s="28"/>
       <c r="G285" s="29"/>
@@ -17767,16 +17774,16 @@
         <v>279</v>
       </c>
       <c r="B286" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C286" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D286" s="26" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E286" s="27" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F286" s="28"/>
       <c r="G286" s="29"/>
@@ -17801,16 +17808,16 @@
         <v>280</v>
       </c>
       <c r="B287" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C287" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D287" s="26" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E287" s="27" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F287" s="28"/>
       <c r="G287" s="29"/>
@@ -17835,16 +17842,16 @@
         <v>281</v>
       </c>
       <c r="B288" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C288" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D288" s="26" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E288" s="27" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F288" s="28"/>
       <c r="G288" s="29"/>
@@ -17869,16 +17876,16 @@
         <v>282</v>
       </c>
       <c r="B289" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C289" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D289" s="26" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E289" s="27" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F289" s="28"/>
       <c r="G289" s="29"/>
@@ -17903,16 +17910,16 @@
         <v>283</v>
       </c>
       <c r="B290" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C290" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D290" s="26" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="E290" s="27" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F290" s="28"/>
       <c r="G290" s="29"/>
@@ -17937,16 +17944,16 @@
         <v>284</v>
       </c>
       <c r="B291" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C291" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D291" s="26" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E291" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F291" s="28"/>
       <c r="G291" s="29"/>
@@ -17971,16 +17978,16 @@
         <v>285</v>
       </c>
       <c r="B292" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C292" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D292" s="26" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E292" s="27" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F292" s="28"/>
       <c r="G292" s="29"/>
@@ -18005,16 +18012,16 @@
         <v>286</v>
       </c>
       <c r="B293" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C293" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D293" s="26" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E293" s="27" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F293" s="28"/>
       <c r="G293" s="29"/>
@@ -18039,16 +18046,16 @@
         <v>287</v>
       </c>
       <c r="B294" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C294" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D294" s="26" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E294" s="27" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F294" s="28"/>
       <c r="G294" s="29"/>
@@ -18073,16 +18080,16 @@
         <v>288</v>
       </c>
       <c r="B295" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C295" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D295" s="26" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E295" s="27" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F295" s="28"/>
       <c r="G295" s="29"/>
@@ -18107,16 +18114,16 @@
         <v>289</v>
       </c>
       <c r="B296" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C296" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D296" s="26" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E296" s="27" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F296" s="28"/>
       <c r="G296" s="29"/>
@@ -18141,16 +18148,16 @@
         <v>290</v>
       </c>
       <c r="B297" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C297" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D297" s="26" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E297" s="27" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F297" s="28"/>
       <c r="G297" s="29"/>
@@ -18175,16 +18182,16 @@
         <v>291</v>
       </c>
       <c r="B298" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C298" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D298" s="26" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E298" s="27" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F298" s="28"/>
       <c r="G298" s="29"/>
@@ -18209,16 +18216,16 @@
         <v>292</v>
       </c>
       <c r="B299" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C299" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D299" s="26" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E299" s="27" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F299" s="28"/>
       <c r="G299" s="29"/>
@@ -18243,16 +18250,16 @@
         <v>293</v>
       </c>
       <c r="B300" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C300" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D300" s="26" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E300" s="27" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F300" s="28"/>
       <c r="G300" s="29"/>
@@ -18277,16 +18284,16 @@
         <v>294</v>
       </c>
       <c r="B301" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C301" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D301" s="26" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E301" s="27" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F301" s="28"/>
       <c r="G301" s="29"/>
@@ -18311,16 +18318,16 @@
         <v>295</v>
       </c>
       <c r="B302" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C302" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D302" s="26" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E302" s="27" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F302" s="28"/>
       <c r="G302" s="29"/>
@@ -18345,16 +18352,16 @@
         <v>296</v>
       </c>
       <c r="B303" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C303" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D303" s="26" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E303" s="27" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F303" s="28"/>
       <c r="G303" s="29"/>
@@ -18379,16 +18386,16 @@
         <v>297</v>
       </c>
       <c r="B304" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C304" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D304" s="26" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E304" s="27" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F304" s="28"/>
       <c r="G304" s="29"/>
@@ -18413,16 +18420,16 @@
         <v>298</v>
       </c>
       <c r="B305" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C305" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D305" s="26" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E305" s="27" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F305" s="28"/>
       <c r="G305" s="29"/>
@@ -18447,16 +18454,16 @@
         <v>299</v>
       </c>
       <c r="B306" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C306" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D306" s="26" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E306" s="27" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F306" s="28"/>
       <c r="G306" s="29"/>
@@ -18481,16 +18488,16 @@
         <v>300</v>
       </c>
       <c r="B307" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C307" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D307" s="26" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E307" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F307" s="28"/>
       <c r="G307" s="29"/>
@@ -18515,16 +18522,16 @@
         <v>301</v>
       </c>
       <c r="B308" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C308" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D308" s="26" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E308" s="27" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F308" s="28"/>
       <c r="G308" s="29"/>
@@ -18549,16 +18556,16 @@
         <v>302</v>
       </c>
       <c r="B309" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C309" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D309" s="26" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E309" s="27" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F309" s="28"/>
       <c r="G309" s="29"/>
@@ -18583,16 +18590,16 @@
         <v>303</v>
       </c>
       <c r="B310" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C310" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D310" s="26" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E310" s="27" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F310" s="28"/>
       <c r="G310" s="29"/>
@@ -18617,16 +18624,16 @@
         <v>304</v>
       </c>
       <c r="B311" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C311" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D311" s="26" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E311" s="27" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F311" s="28"/>
       <c r="G311" s="29"/>
@@ -18651,16 +18658,16 @@
         <v>305</v>
       </c>
       <c r="B312" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C312" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D312" s="26" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E312" s="27" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F312" s="28"/>
       <c r="G312" s="29"/>
@@ -18685,16 +18692,16 @@
         <v>306</v>
       </c>
       <c r="B313" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C313" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D313" s="26" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E313" s="27" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F313" s="28"/>
       <c r="G313" s="29"/>
@@ -18719,16 +18726,16 @@
         <v>307</v>
       </c>
       <c r="B314" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C314" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D314" s="26" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E314" s="27" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F314" s="28"/>
       <c r="G314" s="29"/>
@@ -18753,16 +18760,16 @@
         <v>308</v>
       </c>
       <c r="B315" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C315" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D315" s="26" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E315" s="27" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F315" s="28"/>
       <c r="G315" s="29"/>
@@ -18787,16 +18794,16 @@
         <v>309</v>
       </c>
       <c r="B316" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C316" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D316" s="26" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E316" s="27" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F316" s="28"/>
       <c r="G316" s="29"/>
@@ -18821,16 +18828,16 @@
         <v>310</v>
       </c>
       <c r="B317" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C317" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D317" s="26" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E317" s="27" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F317" s="28"/>
       <c r="G317" s="29"/>
@@ -18855,16 +18862,16 @@
         <v>311</v>
       </c>
       <c r="B318" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C318" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D318" s="26" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E318" s="27" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F318" s="28"/>
       <c r="G318" s="29"/>
@@ -18889,16 +18896,16 @@
         <v>312</v>
       </c>
       <c r="B319" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C319" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D319" s="26" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E319" s="27" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F319" s="28"/>
       <c r="G319" s="29"/>
@@ -18923,16 +18930,16 @@
         <v>313</v>
       </c>
       <c r="B320" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C320" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D320" s="26" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E320" s="27" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F320" s="28"/>
       <c r="G320" s="29"/>
@@ -18957,16 +18964,16 @@
         <v>314</v>
       </c>
       <c r="B321" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C321" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D321" s="26" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E321" s="27" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F321" s="28"/>
       <c r="G321" s="29"/>
@@ -18991,16 +18998,16 @@
         <v>315</v>
       </c>
       <c r="B322" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C322" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D322" s="26" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E322" s="27" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F322" s="28"/>
       <c r="G322" s="29"/>
@@ -19025,16 +19032,16 @@
         <v>316</v>
       </c>
       <c r="B323" s="26" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C323" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D323" s="26" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E323" s="27" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F323" s="28"/>
       <c r="G323" s="29"/>
@@ -19059,16 +19066,16 @@
         <v>317</v>
       </c>
       <c r="B324" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C324" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D324" s="26" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E324" s="27" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F324" s="28"/>
       <c r="G324" s="29"/>
@@ -19093,16 +19100,16 @@
         <v>318</v>
       </c>
       <c r="B325" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C325" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D325" s="26" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E325" s="27" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F325" s="28"/>
       <c r="G325" s="29"/>
@@ -19127,16 +19134,16 @@
         <v>319</v>
       </c>
       <c r="B326" s="26" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C326" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D326" s="26" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E326" s="27" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F326" s="28"/>
       <c r="G326" s="29"/>
@@ -19161,16 +19168,16 @@
         <v>320</v>
       </c>
       <c r="B327" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C327" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D327" s="26" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E327" s="27" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F327" s="28"/>
       <c r="G327" s="29"/>
@@ -19195,16 +19202,16 @@
         <v>321</v>
       </c>
       <c r="B328" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C328" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D328" s="26" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E328" s="27" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F328" s="28"/>
       <c r="G328" s="29"/>
@@ -19229,16 +19236,16 @@
         <v>322</v>
       </c>
       <c r="B329" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C329" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D329" s="26" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E329" s="27" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F329" s="28"/>
       <c r="G329" s="29"/>
@@ -19263,16 +19270,16 @@
         <v>323</v>
       </c>
       <c r="B330" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C330" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D330" s="26" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E330" s="27" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F330" s="28"/>
       <c r="G330" s="29"/>
@@ -19297,16 +19304,16 @@
         <v>324</v>
       </c>
       <c r="B331" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C331" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D331" s="26" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E331" s="27" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F331" s="28"/>
       <c r="G331" s="29"/>
@@ -19331,16 +19338,16 @@
         <v>325</v>
       </c>
       <c r="B332" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C332" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D332" s="26" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E332" s="27" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F332" s="28"/>
       <c r="G332" s="29"/>
@@ -19365,16 +19372,16 @@
         <v>326</v>
       </c>
       <c r="B333" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C333" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D333" s="26" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E333" s="27" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F333" s="28"/>
       <c r="G333" s="29"/>
@@ -19399,16 +19406,16 @@
         <v>327</v>
       </c>
       <c r="B334" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C334" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D334" s="26" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E334" s="27" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F334" s="28"/>
       <c r="G334" s="29"/>
@@ -19433,16 +19440,16 @@
         <v>328</v>
       </c>
       <c r="B335" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C335" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D335" s="26" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E335" s="27" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F335" s="28"/>
       <c r="G335" s="29"/>
@@ -19467,16 +19474,16 @@
         <v>329</v>
       </c>
       <c r="B336" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C336" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D336" s="26" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E336" s="27" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F336" s="28"/>
       <c r="G336" s="29"/>
@@ -19501,16 +19508,16 @@
         <v>330</v>
       </c>
       <c r="B337" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C337" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D337" s="26" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E337" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F337" s="28"/>
       <c r="G337" s="29"/>
@@ -19535,16 +19542,16 @@
         <v>331</v>
       </c>
       <c r="B338" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C338" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D338" s="26" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E338" s="27" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F338" s="28"/>
       <c r="G338" s="29"/>
@@ -19569,16 +19576,16 @@
         <v>332</v>
       </c>
       <c r="B339" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C339" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D339" s="26" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E339" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F339" s="28"/>
       <c r="G339" s="29"/>
@@ -19603,16 +19610,16 @@
         <v>333</v>
       </c>
       <c r="B340" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C340" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D340" s="26" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E340" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F340" s="28"/>
       <c r="G340" s="29"/>
@@ -19637,16 +19644,16 @@
         <v>334</v>
       </c>
       <c r="B341" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C341" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D341" s="26" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E341" s="27" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F341" s="28"/>
       <c r="G341" s="29"/>
@@ -19671,16 +19678,16 @@
         <v>335</v>
       </c>
       <c r="B342" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C342" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D342" s="26" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E342" s="27" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F342" s="28"/>
       <c r="G342" s="29"/>
@@ -19705,16 +19712,16 @@
         <v>336</v>
       </c>
       <c r="B343" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C343" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D343" s="26" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E343" s="27" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F343" s="28"/>
       <c r="G343" s="29"/>
@@ -19739,16 +19746,16 @@
         <v>337</v>
       </c>
       <c r="B344" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C344" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D344" s="26" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E344" s="27" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F344" s="28"/>
       <c r="G344" s="29"/>
@@ -19773,16 +19780,16 @@
         <v>338</v>
       </c>
       <c r="B345" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C345" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D345" s="26" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E345" s="27" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F345" s="28"/>
       <c r="G345" s="29"/>
@@ -19807,16 +19814,16 @@
         <v>339</v>
       </c>
       <c r="B346" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C346" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D346" s="26" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E346" s="27" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F346" s="28"/>
       <c r="G346" s="29"/>
@@ -19841,16 +19848,16 @@
         <v>340</v>
       </c>
       <c r="B347" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C347" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D347" s="26" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E347" s="27" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F347" s="28"/>
       <c r="G347" s="29"/>
@@ -19875,16 +19882,16 @@
         <v>341</v>
       </c>
       <c r="B348" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C348" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D348" s="26" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E348" s="27" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F348" s="28"/>
       <c r="G348" s="29"/>
@@ -19909,16 +19916,16 @@
         <v>342</v>
       </c>
       <c r="B349" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C349" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D349" s="26" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E349" s="27" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F349" s="28"/>
       <c r="G349" s="29"/>
@@ -19943,16 +19950,16 @@
         <v>343</v>
       </c>
       <c r="B350" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C350" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D350" s="26" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E350" s="27" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F350" s="28"/>
       <c r="G350" s="29"/>
@@ -19977,16 +19984,16 @@
         <v>344</v>
       </c>
       <c r="B351" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C351" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D351" s="26" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E351" s="27" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F351" s="28"/>
       <c r="G351" s="29"/>
@@ -20011,16 +20018,16 @@
         <v>345</v>
       </c>
       <c r="B352" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C352" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D352" s="26" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E352" s="27" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F352" s="28"/>
       <c r="G352" s="29"/>
@@ -20045,16 +20052,16 @@
         <v>346</v>
       </c>
       <c r="B353" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C353" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D353" s="26" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E353" s="27" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F353" s="28"/>
       <c r="G353" s="29"/>
@@ -20079,16 +20086,16 @@
         <v>347</v>
       </c>
       <c r="B354" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C354" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D354" s="26" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E354" s="27" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F354" s="28"/>
       <c r="G354" s="29"/>
@@ -20113,16 +20120,16 @@
         <v>348</v>
       </c>
       <c r="B355" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C355" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D355" s="26" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E355" s="27" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F355" s="28"/>
       <c r="G355" s="29"/>
@@ -20147,16 +20154,16 @@
         <v>349</v>
       </c>
       <c r="B356" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C356" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D356" s="26" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E356" s="27" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F356" s="28"/>
       <c r="G356" s="29"/>
@@ -20181,16 +20188,16 @@
         <v>350</v>
       </c>
       <c r="B357" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C357" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D357" s="26" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E357" s="27" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F357" s="28"/>
       <c r="G357" s="29"/>
@@ -20215,16 +20222,16 @@
         <v>351</v>
       </c>
       <c r="B358" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C358" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D358" s="26" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E358" s="27" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F358" s="28"/>
       <c r="G358" s="29"/>
@@ -20249,16 +20256,16 @@
         <v>352</v>
       </c>
       <c r="B359" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C359" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D359" s="26" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E359" s="27" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F359" s="28"/>
       <c r="G359" s="29"/>
@@ -20283,16 +20290,16 @@
         <v>353</v>
       </c>
       <c r="B360" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C360" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D360" s="26" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E360" s="27" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F360" s="28"/>
       <c r="G360" s="29"/>
@@ -20317,16 +20324,16 @@
         <v>354</v>
       </c>
       <c r="B361" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C361" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D361" s="26" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E361" s="27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F361" s="28"/>
       <c r="G361" s="29"/>
@@ -20351,16 +20358,16 @@
         <v>355</v>
       </c>
       <c r="B362" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C362" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D362" s="26" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E362" s="27" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F362" s="28"/>
       <c r="G362" s="29"/>
@@ -20385,16 +20392,16 @@
         <v>356</v>
       </c>
       <c r="B363" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C363" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D363" s="26" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E363" s="27" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F363" s="28"/>
       <c r="G363" s="29"/>
@@ -20419,16 +20426,16 @@
         <v>357</v>
       </c>
       <c r="B364" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C364" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D364" s="26" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E364" s="27" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F364" s="28"/>
       <c r="G364" s="29"/>
@@ -20453,16 +20460,16 @@
         <v>358</v>
       </c>
       <c r="B365" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C365" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D365" s="26" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E365" s="27" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F365" s="28"/>
       <c r="G365" s="29"/>
@@ -20487,16 +20494,16 @@
         <v>359</v>
       </c>
       <c r="B366" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C366" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D366" s="26" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E366" s="27" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F366" s="28"/>
       <c r="G366" s="29"/>
@@ -20521,16 +20528,16 @@
         <v>360</v>
       </c>
       <c r="B367" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C367" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D367" s="26" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E367" s="27" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F367" s="28"/>
       <c r="G367" s="29"/>
@@ -20555,16 +20562,16 @@
         <v>361</v>
       </c>
       <c r="B368" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C368" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D368" s="26" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E368" s="27" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F368" s="28"/>
       <c r="G368" s="29"/>
@@ -20589,16 +20596,16 @@
         <v>362</v>
       </c>
       <c r="B369" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C369" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D369" s="26" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E369" s="27" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F369" s="28"/>
       <c r="G369" s="29"/>
@@ -20623,16 +20630,16 @@
         <v>363</v>
       </c>
       <c r="B370" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C370" s="26" t="s">
         <v>97</v>
       </c>
       <c r="D370" s="26" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E370" s="27" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F370" s="28"/>
       <c r="G370" s="29"/>
@@ -20657,16 +20664,16 @@
         <v>364</v>
       </c>
       <c r="B371" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C371" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D371" s="26" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E371" s="27" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F371" s="28"/>
       <c r="G371" s="29"/>
@@ -20691,16 +20698,16 @@
         <v>365</v>
       </c>
       <c r="B372" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C372" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D372" s="26" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E372" s="27" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F372" s="28"/>
       <c r="G372" s="29"/>
@@ -20725,16 +20732,16 @@
         <v>366</v>
       </c>
       <c r="B373" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C373" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D373" s="26" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E373" s="27" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F373" s="28"/>
       <c r="G373" s="29"/>
@@ -20759,16 +20766,16 @@
         <v>367</v>
       </c>
       <c r="B374" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C374" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D374" s="26" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E374" s="27" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F374" s="28"/>
       <c r="G374" s="29"/>
@@ -20799,10 +20806,10 @@
         <v>49</v>
       </c>
       <c r="D375" s="26" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E375" s="27" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F375" s="28"/>
       <c r="G375" s="29"/>
@@ -20833,10 +20840,10 @@
         <v>61</v>
       </c>
       <c r="D376" s="26" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E376" s="27" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F376" s="28"/>
       <c r="G376" s="29"/>
@@ -20867,10 +20874,10 @@
         <v>70</v>
       </c>
       <c r="D377" s="26" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E377" s="27" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F377" s="28"/>
       <c r="G377" s="29"/>
@@ -20901,10 +20908,10 @@
         <v>79</v>
       </c>
       <c r="D378" s="26" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E378" s="27" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F378" s="28"/>
       <c r="G378" s="29"/>
@@ -20935,10 +20942,10 @@
         <v>88</v>
       </c>
       <c r="D379" s="26" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E379" s="27" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F379" s="28"/>
       <c r="G379" s="29"/>
@@ -20969,10 +20976,10 @@
         <v>97</v>
       </c>
       <c r="D380" s="26" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E380" s="27" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F380" s="28"/>
       <c r="G380" s="29"/>
@@ -21003,10 +21010,10 @@
         <v>120</v>
       </c>
       <c r="D381" s="26" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E381" s="27" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F381" s="28"/>
       <c r="G381" s="29"/>
@@ -21037,22 +21044,22 @@
         <v>110</v>
       </c>
       <c r="D382" s="36" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E382" s="37" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F382" s="28" t="n">
         <v>45392</v>
       </c>
       <c r="G382" s="30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H382" s="30" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I382" s="30" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J382" s="38" t="s">
         <v>115</v>
@@ -21082,10 +21089,10 @@
         <v>49</v>
       </c>
       <c r="D383" s="26" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E383" s="27" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F383" s="28"/>
       <c r="G383" s="29"/>
@@ -25833,10 +25840,10 @@
         <v>29</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25844,13 +25851,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25858,13 +25865,13 @@
         <v>61</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25872,13 +25879,13 @@
         <v>70</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25886,13 +25893,13 @@
         <v>79</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25900,13 +25907,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25914,13 +25921,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25928,13 +25935,13 @@
         <v>120</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25942,27 +25949,27 @@
         <v>110</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25970,13 +25977,13 @@
         <v>49</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C11" s="43" t="n">
         <v>192</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25984,13 +25991,13 @@
         <v>61</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C12" s="43" t="n">
         <v>208</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25998,13 +26005,13 @@
         <v>70</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C13" s="43" t="n">
         <v>224</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26012,13 +26019,13 @@
         <v>79</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C14" s="43" t="n">
         <v>240</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26026,13 +26033,13 @@
         <v>88</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C15" s="43" t="n">
         <v>256</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26040,13 +26047,13 @@
         <v>97</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C16" s="43" t="n">
         <v>272</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26054,13 +26061,13 @@
         <v>120</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C17" s="43" t="n">
         <v>288</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26068,13 +26075,13 @@
         <v>110</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C18" s="43" t="n">
         <v>304</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26082,13 +26089,13 @@
         <v>49</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C19" s="43" t="n">
         <v>193</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26096,13 +26103,13 @@
         <v>61</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C20" s="43" t="n">
         <v>209</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26110,13 +26117,13 @@
         <v>70</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C21" s="43" t="n">
         <v>225</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26124,13 +26131,13 @@
         <v>79</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C22" s="43" t="n">
         <v>241</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26138,13 +26145,13 @@
         <v>88</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C23" s="43" t="n">
         <v>257</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26152,13 +26159,13 @@
         <v>97</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C24" s="43" t="n">
         <v>273</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26166,13 +26173,13 @@
         <v>120</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C25" s="43" t="n">
         <v>289</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26180,13 +26187,13 @@
         <v>110</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C26" s="43" t="n">
         <v>305</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26194,13 +26201,13 @@
         <v>49</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C27" s="43" t="n">
         <v>194</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26208,13 +26215,13 @@
         <v>61</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C28" s="43" t="n">
         <v>210</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26222,13 +26229,13 @@
         <v>70</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C29" s="43" t="n">
         <v>226</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26236,13 +26243,13 @@
         <v>79</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C30" s="43" t="n">
         <v>242</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26250,13 +26257,13 @@
         <v>88</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C31" s="43" t="n">
         <v>258</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26264,13 +26271,13 @@
         <v>97</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C32" s="43" t="n">
         <v>274</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26278,13 +26285,13 @@
         <v>120</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C33" s="43" t="n">
         <v>290</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26292,13 +26299,13 @@
         <v>110</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C34" s="43" t="n">
         <v>306</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26306,7 +26313,7 @@
         <v>49</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C35" s="43" t="n">
         <v>195</v>
@@ -26320,7 +26327,7 @@
         <v>61</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C36" s="43" t="n">
         <v>211</v>
@@ -26334,7 +26341,7 @@
         <v>70</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C37" s="43" t="n">
         <v>227</v>
@@ -26348,7 +26355,7 @@
         <v>79</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C38" s="43" t="n">
         <v>243</v>
@@ -26362,7 +26369,7 @@
         <v>88</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C39" s="43" t="n">
         <v>259</v>
@@ -26376,7 +26383,7 @@
         <v>97</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C40" s="43" t="n">
         <v>275</v>
@@ -26390,7 +26397,7 @@
         <v>120</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C41" s="43" t="n">
         <v>291</v>
@@ -26404,7 +26411,7 @@
         <v>110</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C42" s="43" t="n">
         <v>307</v>
@@ -26418,7 +26425,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C43" s="43" t="n">
         <v>196</v>
@@ -26432,7 +26439,7 @@
         <v>61</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C44" s="43" t="n">
         <v>212</v>
@@ -26446,7 +26453,7 @@
         <v>70</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C45" s="43" t="n">
         <v>228</v>
@@ -26460,7 +26467,7 @@
         <v>79</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C46" s="43" t="n">
         <v>244</v>
@@ -26474,7 +26481,7 @@
         <v>88</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C47" s="43" t="n">
         <v>260</v>
@@ -26488,7 +26495,7 @@
         <v>97</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C48" s="43" t="n">
         <v>276</v>
@@ -26502,7 +26509,7 @@
         <v>120</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C49" s="43" t="n">
         <v>292</v>
@@ -26516,7 +26523,7 @@
         <v>110</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C50" s="43" t="n">
         <v>308</v>
@@ -27522,7 +27529,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="46" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>115</v>
@@ -27530,7 +27537,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="46" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>116</v>
